--- a/resultados/por_vector/R1.xlsx
+++ b/resultados/por_vector/R1.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="R1_0" sheetId="1" r:id="rId1"/>
     <sheet name="R1_0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="R1_0.3" sheetId="3" r:id="rId3"/>
-    <sheet name="R1_0.4" sheetId="4" r:id="rId4"/>
+    <sheet name="R1_0.2" sheetId="3" r:id="rId3"/>
+    <sheet name="R1_0.3" sheetId="4" r:id="rId4"/>
+    <sheet name="R1_0.4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="179">
   <si>
     <t>ID</t>
   </si>
@@ -3960,13 +3961,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>310.4172625227204</v>
+        <v>354.7625857402519</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
-        <v>0.1000700394979756</v>
+        <v>0.1143657594262579</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3977,13 +3978,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>488.0122684569848</v>
+        <v>557.7283068079827</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0.1233600274158202</v>
+        <v>0.1409828884752231</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3994,13 +3995,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>523.3628148150818</v>
+        <v>598.1289312172364</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E4">
-        <v>0.07807889225944828</v>
+        <v>0.08923301972508375</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4011,13 +4012,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>378.1763238617006</v>
+        <v>432.2015129848007</v>
       </c>
       <c r="D5">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E5">
-        <v>0.07963283298835556</v>
+        <v>0.09100895198669209</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4028,13 +4029,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>338.2535928873897</v>
+        <v>386.5755347284455</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E6">
-        <v>0.08957987099771975</v>
+        <v>0.1023769954259654</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4045,13 +4046,13 @@
         <v>97</v>
       </c>
       <c r="C7">
-        <v>710.8225798603158</v>
+        <v>812.368662697504</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E7">
-        <v>0.1247713849149229</v>
+        <v>0.1425958684741976</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4062,13 +4063,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>1956.558725591879</v>
+        <v>2236.067114962148</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E8">
-        <v>0.08243348327751754</v>
+        <v>0.09420969517430577</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4079,13 +4080,13 @@
         <v>99</v>
       </c>
       <c r="C9">
-        <v>1339.957434186123</v>
+        <v>1531.379924784141</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E9">
-        <v>0.1908499407756906</v>
+        <v>0.2181142180293607</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4096,13 +4097,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>1315.547167366489</v>
+        <v>1503.482476990274</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <v>0.1104017428135691</v>
+        <v>0.1261734203583647</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4113,13 +4114,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>548.9869799416126</v>
+        <v>627.4136913618431</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E11">
-        <v>0.08316724434807038</v>
+        <v>0.0950482792549376</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4130,13 +4131,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>384.3112338717561</v>
+        <v>439.2128387105785</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E12">
-        <v>0.0845569271445008</v>
+        <v>0.09663648816514379</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4147,13 +4148,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>1239.320500788444</v>
+        <v>1416.366286615365</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>0.08318145518413611</v>
+        <v>0.09506452021044128</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4164,13 +4165,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>1986.028981022385</v>
+        <v>2269.747406882726</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E14">
-        <v>0.088303276022515</v>
+        <v>0.1009180297400172</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4181,13 +4182,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>906.1447663272961</v>
+        <v>1035.594018659767</v>
       </c>
       <c r="D15">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E15">
-        <v>0.07876095317925216</v>
+        <v>0.09001251791914533</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4198,13 +4199,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>364.323353382228</v>
+        <v>416.3695467225464</v>
       </c>
       <c r="D16">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E16">
-        <v>0.06875322766224344</v>
+        <v>0.07857511732827824</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4215,13 +4216,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>284.2268971924078</v>
+        <v>324.8307396484661</v>
       </c>
       <c r="D17">
-        <v>0.3000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
-        <v>0.05655131261289451</v>
+        <v>0.06463007155759375</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4232,13 +4233,13 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>1511.669872535263</v>
+        <v>1727.622711468873</v>
       </c>
       <c r="D18">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E18">
-        <v>0.08720836924744797</v>
+        <v>0.09966670771136914</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4249,13 +4250,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>687.4972837379457</v>
+        <v>785.7111814147952</v>
       </c>
       <c r="D19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E19">
-        <v>0.06355711229896882</v>
+        <v>0.07263669977025008</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4266,13 +4267,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>702.1709596353838</v>
+        <v>802.4810967261531</v>
       </c>
       <c r="D20">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E20">
-        <v>0.06919985805020044</v>
+        <v>0.07908555205737194</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4283,13 +4284,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>577.739271503595</v>
+        <v>660.2734531469658</v>
       </c>
       <c r="D21">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E21">
-        <v>0.0737570881531463</v>
+        <v>0.08429381503216722</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4300,13 +4301,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>516.2335130794531</v>
+        <v>589.9811578050893</v>
       </c>
       <c r="D22">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E22">
-        <v>0.06065485995528765</v>
+        <v>0.06931983994890016</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4317,13 +4318,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>698.2708221968434</v>
+        <v>798.0237967963925</v>
       </c>
       <c r="D23">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E23">
-        <v>0.07194959528045784</v>
+        <v>0.08222810889195183</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4334,13 +4335,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>832.2555937386651</v>
+        <v>951.149249987046</v>
       </c>
       <c r="D24">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E24">
-        <v>0.1234617406525241</v>
+        <v>0.1410991321743133</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4351,13 +4352,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>1363.544382530795</v>
+        <v>1558.336437178052</v>
       </c>
       <c r="D25">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E25">
-        <v>0.09339345085827365</v>
+        <v>0.1067353724094556</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4368,13 +4369,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>801.5849061567114</v>
+        <v>916.0970356076704</v>
       </c>
       <c r="D26">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E26">
-        <v>0.1260551826005208</v>
+        <v>0.1440630658291666</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4385,13 +4386,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>267.9330841624316</v>
+        <v>306.209239042779</v>
       </c>
       <c r="D27">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E27">
-        <v>0.0976432522457841</v>
+        <v>0.1115922882808961</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4402,13 +4403,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>1661.701906189832</v>
+        <v>1899.08789278838</v>
       </c>
       <c r="D28">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E28">
-        <v>0.06401255465117425</v>
+        <v>0.07315720531562774</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4419,13 +4420,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>300.8589598045683</v>
+        <v>343.838811205221</v>
       </c>
       <c r="D29">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E29">
-        <v>0.06208397849867278</v>
+        <v>0.07095311828419748</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4436,13 +4437,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>515.9184086059431</v>
+        <v>589.6210384067922</v>
       </c>
       <c r="D30">
-        <v>0.3000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E30">
-        <v>0.05533823968743357</v>
+        <v>0.06324370249992407</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4453,13 +4454,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>180.9787367995899</v>
+        <v>206.8328420566743</v>
       </c>
       <c r="D31">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E31">
-        <v>0.05092254833978332</v>
+        <v>0.05819719810260952</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4470,13 +4471,13 @@
         <v>122</v>
       </c>
       <c r="C32">
-        <v>335.1555509967794</v>
+        <v>383.0349154248908</v>
       </c>
       <c r="D32">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E32">
-        <v>0.06697752817681442</v>
+        <v>0.07654574648778792</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4487,13 +4488,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>1711.994942758712</v>
+        <v>1956.5656488671</v>
       </c>
       <c r="D33">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E33">
-        <v>0.07045246678019393</v>
+        <v>0.08051710489165022</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4504,13 +4505,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>652.2276101177395</v>
+        <v>745.4029829917023</v>
       </c>
       <c r="D34">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E34">
-        <v>0.06395642382013526</v>
+        <v>0.07309305579444031</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4521,13 +4522,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>701.4730829733805</v>
+        <v>801.6835233981493</v>
       </c>
       <c r="D35">
-        <v>0.3000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E35">
-        <v>0.06929498004281147</v>
+        <v>0.07919426290607026</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4538,13 +4539,13 @@
         <v>126</v>
       </c>
       <c r="C36">
-        <v>670.954256706723</v>
+        <v>766.8048648076834</v>
       </c>
       <c r="D36">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E36">
-        <v>0.07023492690324745</v>
+        <v>0.08026848788942567</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4555,13 +4556,13 @@
         <v>127</v>
       </c>
       <c r="C37">
-        <v>233.9246592477604</v>
+        <v>267.3424677117262</v>
       </c>
       <c r="D37">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E37">
-        <v>0.06454874703304647</v>
+        <v>0.07376999660919598</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4572,13 +4573,13 @@
         <v>128</v>
       </c>
       <c r="C38">
-        <v>995.5026362111486</v>
+        <v>1137.717298527027</v>
       </c>
       <c r="D38">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E38">
-        <v>0.06506553177850644</v>
+        <v>0.07436060774686451</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4589,13 +4590,13 @@
         <v>129</v>
       </c>
       <c r="C39">
-        <v>1055.575694333575</v>
+        <v>1206.372222095515</v>
       </c>
       <c r="D39">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E39">
-        <v>0.0626119991893692</v>
+        <v>0.07155657050213624</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4606,13 +4607,13 @@
         <v>130</v>
       </c>
       <c r="C40">
-        <v>389.2661768138209</v>
+        <v>444.8756306443668</v>
       </c>
       <c r="D40">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E40">
-        <v>0.06501856970332737</v>
+        <v>0.07430693680380271</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4623,13 +4624,13 @@
         <v>131</v>
       </c>
       <c r="C41">
-        <v>599.7987018177259</v>
+        <v>685.4842306488298</v>
       </c>
       <c r="D41">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E41">
-        <v>0.06019657786207607</v>
+        <v>0.06879608898522981</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4640,13 +4641,13 @@
         <v>132</v>
       </c>
       <c r="C42">
-        <v>231.2862198866561</v>
+        <v>264.3271084418927</v>
       </c>
       <c r="D42">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E42">
-        <v>0.06037228396936989</v>
+        <v>0.06899689596499417</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4657,13 +4658,13 @@
         <v>133</v>
       </c>
       <c r="C43">
-        <v>1253.055524988517</v>
+        <v>1432.063457129734</v>
       </c>
       <c r="D43">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E43">
-        <v>0.06524971490254723</v>
+        <v>0.07457110274576828</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4674,13 +4675,13 @@
         <v>134</v>
       </c>
       <c r="C44">
-        <v>744.0554080132165</v>
+        <v>850.3490377293904</v>
       </c>
       <c r="D44">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E44">
-        <v>0.06186027668882745</v>
+        <v>0.07069745907294565</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4691,13 +4692,13 @@
         <v>135</v>
       </c>
       <c r="C45">
-        <v>1467.278688557803</v>
+        <v>1676.889929780347</v>
       </c>
       <c r="D45">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E45">
-        <v>0.06583563012329176</v>
+        <v>0.07524072014090488</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4708,13 +4709,13 @@
         <v>136</v>
       </c>
       <c r="C46">
-        <v>170.9786567297884</v>
+        <v>195.4041791197583</v>
       </c>
       <c r="D46">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E46">
-        <v>0.05624297918743041</v>
+        <v>0.06427769049992048</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4725,13 +4726,13 @@
         <v>137</v>
       </c>
       <c r="C47">
-        <v>396.708994174616</v>
+        <v>453.3817076281325</v>
       </c>
       <c r="D47">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E47">
-        <v>0.05261392495684562</v>
+        <v>0.0601301999506807</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4742,13 +4743,13 @@
         <v>138</v>
       </c>
       <c r="C48">
-        <v>177.6992560488625</v>
+        <v>203.0848640558429</v>
       </c>
       <c r="D48">
-        <v>0.3000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E48">
-        <v>0.06417452367239529</v>
+        <v>0.07334231276845177</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4759,13 +4760,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>682.2350483073744</v>
+        <v>779.6971980655708</v>
       </c>
       <c r="D49">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E49">
-        <v>0.08875179501852146</v>
+        <v>0.1014306228783102</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4776,13 +4777,13 @@
         <v>140</v>
       </c>
       <c r="C50">
-        <v>602.0588764809884</v>
+        <v>688.067287406844</v>
       </c>
       <c r="D50">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E50">
-        <v>0.06340799120389556</v>
+        <v>0.07246627566159494</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4793,13 +4794,13 @@
         <v>141</v>
       </c>
       <c r="C51">
-        <v>1208.777626889244</v>
+        <v>1381.460145016279</v>
       </c>
       <c r="D51">
-        <v>0.3000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E51">
-        <v>0.06295388921875132</v>
+        <v>0.07194730196428724</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4810,13 +4811,13 @@
         <v>142</v>
       </c>
       <c r="C52">
-        <v>800.8551332905564</v>
+        <v>915.2630094749217</v>
       </c>
       <c r="D52">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E52">
-        <v>0.06244971407443516</v>
+        <v>0.07137110179935446</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4827,13 +4828,13 @@
         <v>143</v>
       </c>
       <c r="C53">
-        <v>550.5864214181979</v>
+        <v>629.2416244779406</v>
       </c>
       <c r="D53">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E53">
-        <v>0.06988911162962655</v>
+        <v>0.07987327043385892</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4844,13 +4845,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>329.7169742633172</v>
+        <v>376.8193991580769</v>
       </c>
       <c r="D54">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E54">
-        <v>0.0541585043139483</v>
+        <v>0.0618954335016552</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4861,13 +4862,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>1565.407741369039</v>
+        <v>1789.037418707473</v>
       </c>
       <c r="D55">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E55">
-        <v>0.06375627179444625</v>
+        <v>0.07286431062222429</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4878,13 +4879,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>594.6235457991907</v>
+        <v>679.5697666276465</v>
       </c>
       <c r="D56">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E56">
-        <v>0.06825339139109167</v>
+        <v>0.07800387587553334</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4895,13 +4896,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>905.9282679681766</v>
+        <v>1035.346591963631</v>
       </c>
       <c r="D57">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E57">
-        <v>0.06190994792374609</v>
+        <v>0.07075422619856697</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4912,13 +4913,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>302.9514503856519</v>
+        <v>346.2302290121736</v>
       </c>
       <c r="D58">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E58">
-        <v>0.06686194005421582</v>
+        <v>0.07641364577624665</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4929,13 +4930,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>1375.697023803415</v>
+        <v>1572.225170061045</v>
       </c>
       <c r="D59">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E59">
-        <v>0.1048309855828252</v>
+        <v>0.1198068406660859</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4946,13 +4947,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>578.5126357005744</v>
+        <v>661.1572979435136</v>
       </c>
       <c r="D60">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E60">
-        <v>0.0682691333137331</v>
+        <v>0.07802186664426641</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4963,13 +4964,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>920.9375175289357</v>
+        <v>1052.500020033069</v>
       </c>
       <c r="D61">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E61">
-        <v>0.07882039691278121</v>
+        <v>0.09008045361460711</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4980,13 +4981,13 @@
         <v>152</v>
       </c>
       <c r="C62">
-        <v>473.9751504631852</v>
+        <v>541.6858862436403</v>
       </c>
       <c r="D62">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E62">
-        <v>0.06757558461123257</v>
+        <v>0.07722923955569437</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4997,13 +4998,13 @@
         <v>153</v>
       </c>
       <c r="C63">
-        <v>490.0657728079262</v>
+        <v>560.0751689233443</v>
       </c>
       <c r="D63">
-        <v>0.3000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E63">
-        <v>0.09082019510895593</v>
+        <v>0.1037945086959497</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5014,13 +5015,13 @@
         <v>154</v>
       </c>
       <c r="C64">
-        <v>307.5921787162156</v>
+        <v>351.5339185328179</v>
       </c>
       <c r="D64">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E64">
-        <v>0.0930405864235377</v>
+        <v>0.1063320987697574</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5031,13 +5032,13 @@
         <v>155</v>
       </c>
       <c r="C65">
-        <v>1704.624898068311</v>
+        <v>1948.142740649499</v>
       </c>
       <c r="D65">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E65">
-        <v>0.07483317520823177</v>
+        <v>0.08552362880940774</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5048,13 +5049,13 @@
         <v>156</v>
       </c>
       <c r="C66">
-        <v>404.3540994797295</v>
+        <v>462.1189708339766</v>
       </c>
       <c r="D66">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E66">
-        <v>0.07650976338310871</v>
+        <v>0.08743972958069567</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5065,13 +5066,13 @@
         <v>157</v>
       </c>
       <c r="C67">
-        <v>886.8515171581267</v>
+        <v>1013.544591037859</v>
       </c>
       <c r="D67">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E67">
-        <v>0.05352151582125086</v>
+        <v>0.06116744665285814</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5082,13 +5083,13 @@
         <v>158</v>
       </c>
       <c r="C68">
-        <v>1505.1492997304</v>
+        <v>1720.170628263314</v>
       </c>
       <c r="D68">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E68">
-        <v>0.05781697459879383</v>
+        <v>0.06607654239862153</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5099,13 +5100,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>939.798945015772</v>
+        <v>1074.055937160882</v>
       </c>
       <c r="D69">
-        <v>0.3000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E69">
-        <v>0.08572461415814758</v>
+        <v>0.09797098760931154</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5116,13 +5117,13 @@
         <v>160</v>
       </c>
       <c r="C70">
-        <v>2647.504007791044</v>
+        <v>3025.718866046908</v>
       </c>
       <c r="D70">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E70">
-        <v>0.06323454685657411</v>
+        <v>0.07226805355037041</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5133,13 +5134,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>313.7797239284938</v>
+        <v>358.6053987754215</v>
       </c>
       <c r="D71">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E71">
-        <v>0.05332762133387046</v>
+        <v>0.06094585295299482</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5150,13 +5151,13 @@
         <v>162</v>
       </c>
       <c r="C72">
-        <v>64.91167408484395</v>
+        <v>74.18477038267881</v>
       </c>
       <c r="D72">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E72">
-        <v>0.06536925889712382</v>
+        <v>0.0747077244538558</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5167,13 +5168,13 @@
         <v>163</v>
       </c>
       <c r="C73">
-        <v>53.57064232089613</v>
+        <v>61.2235912238813</v>
       </c>
       <c r="D73">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E73">
-        <v>0.05899850475869618</v>
+        <v>0.06742686258136707</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5184,13 +5185,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>78.56807063496755</v>
+        <v>89.79208072567721</v>
       </c>
       <c r="D74">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E74">
-        <v>0.06596815334590055</v>
+        <v>0.07539217525245777</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5201,13 +5202,13 @@
         <v>165</v>
       </c>
       <c r="C75">
-        <v>23.72904097965595</v>
+        <v>27.11890397674965</v>
       </c>
       <c r="D75">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E75">
-        <v>0.06536925889712382</v>
+        <v>0.07470772445385579</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5218,13 +5219,13 @@
         <v>166</v>
       </c>
       <c r="C76">
-        <v>3.726047757136057</v>
+        <v>4.258340293869781</v>
       </c>
       <c r="D76">
-        <v>0.3</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E76">
-        <v>0.06536925889712381</v>
+        <v>0.0747077244538558</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5235,13 +5236,13 @@
         <v>167</v>
       </c>
       <c r="C77">
-        <v>236.2103005408986</v>
+        <v>269.9546291895984</v>
       </c>
       <c r="D77">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E77">
-        <v>0.09455976803078406</v>
+        <v>0.1080683063208961</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5252,13 +5253,13 @@
         <v>168</v>
       </c>
       <c r="C78">
-        <v>47.26385555174958</v>
+        <v>54.01583491628524</v>
       </c>
       <c r="D78">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E78">
-        <v>0.06439217377622558</v>
+        <v>0.07359105574425781</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5269,13 +5270,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>792.1290929335046</v>
+        <v>905.2903919240052</v>
       </c>
       <c r="D79">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E79">
-        <v>0.05922460507914053</v>
+        <v>0.06768526294758917</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5286,13 +5287,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>80.50909707054494</v>
+        <v>92.01039665205138</v>
       </c>
       <c r="D80">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E80">
-        <v>0.06875243131558065</v>
+        <v>0.07857420721780647</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5303,13 +5304,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>75.45474883756356</v>
+        <v>86.23399867150123</v>
       </c>
       <c r="D81">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E81">
-        <v>0.05890300455703634</v>
+        <v>0.06731771949375584</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5320,13 +5321,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>428.0835630738745</v>
+        <v>489.2383577987138</v>
       </c>
       <c r="D82">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E82">
-        <v>0.06297198633037283</v>
+        <v>0.07196798437756896</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5337,13 +5338,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>174.291592217852</v>
+        <v>199.1903911061166</v>
       </c>
       <c r="D83">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E83">
-        <v>0.0671126654670204</v>
+        <v>0.07670018910516618</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5354,13 +5355,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>155.0102027654304</v>
+        <v>177.1545174462061</v>
       </c>
       <c r="D84">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E84">
-        <v>0.08179957929574162</v>
+        <v>0.09348523348084757</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5371,13 +5372,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>50.47281390518645</v>
+        <v>57.68321589164166</v>
       </c>
       <c r="D85">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E85">
-        <v>0.06615047693995603</v>
+        <v>0.07560054507423547</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5388,13 +5389,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>119.2026560787126</v>
+        <v>136.2316069471001</v>
       </c>
       <c r="D86">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E86">
-        <v>0.08010931188085524</v>
+        <v>0.091553499292406</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5405,13 +5406,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>281.4677299644492</v>
+        <v>321.6774056736563</v>
       </c>
       <c r="D87">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E87">
-        <v>0.05770146165732867</v>
+        <v>0.06594452760837562</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5422,13 +5423,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>94.3524263595417</v>
+        <v>107.8313444109048</v>
       </c>
       <c r="D88">
-        <v>0.3000000000000001</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="E88">
-        <v>0.05937849361833965</v>
+        <v>0.06786113556381675</v>
       </c>
     </row>
   </sheetData>
@@ -5469,6 +5470,1515 @@
         <v>92</v>
       </c>
       <c r="C2">
+        <v>310.4172625227204</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.1000700394979756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>488.0122684569848</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>0.1233600274158202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>523.3628148150818</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>0.07807889225944828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>378.1763238617006</v>
+      </c>
+      <c r="D5">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.07963283298835556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>338.2535928873897</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.08957987099771975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>710.8225798603158</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0.1247713849149229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>1956.558725591879</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>0.08243348327751754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>1339.957434186123</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>0.1908499407756906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>1315.547167366489</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0.1104017428135691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>548.9869799416126</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>0.08316724434807038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>384.3112338717561</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0.0845569271445008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>1239.320500788444</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
+        <v>0.08318145518413611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <v>1986.028981022385</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.088303276022515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>906.1447663272961</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>0.07876095317925216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <v>364.323353382228</v>
+      </c>
+      <c r="D16">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.06875322766224344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17">
+        <v>284.2268971924078</v>
+      </c>
+      <c r="D17">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.05655131261289451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>1511.669872535263</v>
+      </c>
+      <c r="D18">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.08720836924744797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>687.4972837379457</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19">
+        <v>0.06355711229896882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>702.1709596353838</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20">
+        <v>0.06919985805020044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>577.739271503595</v>
+      </c>
+      <c r="D21">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.0737570881531463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>516.2335130794531</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
+      </c>
+      <c r="E22">
+        <v>0.06065485995528765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>698.2708221968434</v>
+      </c>
+      <c r="D23">
+        <v>0.3</v>
+      </c>
+      <c r="E23">
+        <v>0.07194959528045784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24">
+        <v>832.2555937386651</v>
+      </c>
+      <c r="D24">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.1234617406525241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>1363.544382530795</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <v>0.09339345085827365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26">
+        <v>801.5849061567114</v>
+      </c>
+      <c r="D26">
+        <v>0.3</v>
+      </c>
+      <c r="E26">
+        <v>0.1260551826005208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27">
+        <v>267.9330841624316</v>
+      </c>
+      <c r="D27">
+        <v>0.3</v>
+      </c>
+      <c r="E27">
+        <v>0.0976432522457841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>1661.701906189832</v>
+      </c>
+      <c r="D28">
+        <v>0.3</v>
+      </c>
+      <c r="E28">
+        <v>0.06401255465117425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <v>300.8589598045683</v>
+      </c>
+      <c r="D29">
+        <v>0.3</v>
+      </c>
+      <c r="E29">
+        <v>0.06208397849867278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <v>515.9184086059431</v>
+      </c>
+      <c r="D30">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.05533823968743357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31">
+        <v>180.9787367995899</v>
+      </c>
+      <c r="D31">
+        <v>0.3</v>
+      </c>
+      <c r="E31">
+        <v>0.05092254833978332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
+        <v>335.1555509967794</v>
+      </c>
+      <c r="D32">
+        <v>0.3</v>
+      </c>
+      <c r="E32">
+        <v>0.06697752817681442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33">
+        <v>1711.994942758712</v>
+      </c>
+      <c r="D33">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.07045246678019393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34">
+        <v>652.2276101177395</v>
+      </c>
+      <c r="D34">
+        <v>0.3</v>
+      </c>
+      <c r="E34">
+        <v>0.06395642382013526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35">
+        <v>701.4730829733805</v>
+      </c>
+      <c r="D35">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.06929498004281147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36">
+        <v>670.954256706723</v>
+      </c>
+      <c r="D36">
+        <v>0.3</v>
+      </c>
+      <c r="E36">
+        <v>0.07023492690324745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
+        <v>233.9246592477604</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+      <c r="E37">
+        <v>0.06454874703304647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38">
+        <v>995.5026362111486</v>
+      </c>
+      <c r="D38">
+        <v>0.3</v>
+      </c>
+      <c r="E38">
+        <v>0.06506553177850644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39">
+        <v>1055.575694333575</v>
+      </c>
+      <c r="D39">
+        <v>0.3</v>
+      </c>
+      <c r="E39">
+        <v>0.0626119991893692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40">
+        <v>389.2661768138209</v>
+      </c>
+      <c r="D40">
+        <v>0.3</v>
+      </c>
+      <c r="E40">
+        <v>0.06501856970332737</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41">
+        <v>599.7987018177259</v>
+      </c>
+      <c r="D41">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.06019657786207607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42">
+        <v>231.2862198866561</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="E42">
+        <v>0.06037228396936989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43">
+        <v>1253.055524988517</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+      <c r="E43">
+        <v>0.06524971490254723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44">
+        <v>744.0554080132165</v>
+      </c>
+      <c r="D44">
+        <v>0.3</v>
+      </c>
+      <c r="E44">
+        <v>0.06186027668882745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
+        <v>1467.278688557803</v>
+      </c>
+      <c r="D45">
+        <v>0.3</v>
+      </c>
+      <c r="E45">
+        <v>0.06583563012329176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46">
+        <v>170.9786567297884</v>
+      </c>
+      <c r="D46">
+        <v>0.3</v>
+      </c>
+      <c r="E46">
+        <v>0.05624297918743041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47">
+        <v>396.708994174616</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+      <c r="E47">
+        <v>0.05261392495684562</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48">
+        <v>177.6992560488625</v>
+      </c>
+      <c r="D48">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E48">
+        <v>0.06417452367239529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49">
+        <v>682.2350483073744</v>
+      </c>
+      <c r="D49">
+        <v>0.3</v>
+      </c>
+      <c r="E49">
+        <v>0.08875179501852146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50">
+        <v>602.0588764809884</v>
+      </c>
+      <c r="D50">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.06340799120389556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51">
+        <v>1208.777626889244</v>
+      </c>
+      <c r="D51">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E51">
+        <v>0.06295388921875132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
+        <v>800.8551332905564</v>
+      </c>
+      <c r="D52">
+        <v>0.3</v>
+      </c>
+      <c r="E52">
+        <v>0.06244971407443516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53">
+        <v>550.5864214181979</v>
+      </c>
+      <c r="D53">
+        <v>0.3</v>
+      </c>
+      <c r="E53">
+        <v>0.06988911162962655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54">
+        <v>329.7169742633172</v>
+      </c>
+      <c r="D54">
+        <v>0.3</v>
+      </c>
+      <c r="E54">
+        <v>0.0541585043139483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55">
+        <v>1565.407741369039</v>
+      </c>
+      <c r="D55">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.06375627179444625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56">
+        <v>594.6235457991907</v>
+      </c>
+      <c r="D56">
+        <v>0.3</v>
+      </c>
+      <c r="E56">
+        <v>0.06825339139109167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57">
+        <v>905.9282679681766</v>
+      </c>
+      <c r="D57">
+        <v>0.3</v>
+      </c>
+      <c r="E57">
+        <v>0.06190994792374609</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58">
+        <v>302.9514503856519</v>
+      </c>
+      <c r="D58">
+        <v>0.3</v>
+      </c>
+      <c r="E58">
+        <v>0.06686194005421582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59">
+        <v>1375.697023803415</v>
+      </c>
+      <c r="D59">
+        <v>0.3</v>
+      </c>
+      <c r="E59">
+        <v>0.1048309855828252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60">
+        <v>578.5126357005744</v>
+      </c>
+      <c r="D60">
+        <v>0.3</v>
+      </c>
+      <c r="E60">
+        <v>0.0682691333137331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61">
+        <v>920.9375175289357</v>
+      </c>
+      <c r="D61">
+        <v>0.3</v>
+      </c>
+      <c r="E61">
+        <v>0.07882039691278121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62">
+        <v>473.9751504631852</v>
+      </c>
+      <c r="D62">
+        <v>0.3</v>
+      </c>
+      <c r="E62">
+        <v>0.06757558461123257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63">
+        <v>490.0657728079262</v>
+      </c>
+      <c r="D63">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E63">
+        <v>0.09082019510895593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64">
+        <v>307.5921787162156</v>
+      </c>
+      <c r="D64">
+        <v>0.3</v>
+      </c>
+      <c r="E64">
+        <v>0.0930405864235377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65">
+        <v>1704.624898068311</v>
+      </c>
+      <c r="D65">
+        <v>0.3</v>
+      </c>
+      <c r="E65">
+        <v>0.07483317520823177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66">
+        <v>404.3540994797295</v>
+      </c>
+      <c r="D66">
+        <v>0.3</v>
+      </c>
+      <c r="E66">
+        <v>0.07650976338310871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67">
+        <v>886.8515171581267</v>
+      </c>
+      <c r="D67">
+        <v>0.3</v>
+      </c>
+      <c r="E67">
+        <v>0.05352151582125086</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68">
+        <v>1505.1492997304</v>
+      </c>
+      <c r="D68">
+        <v>0.3</v>
+      </c>
+      <c r="E68">
+        <v>0.05781697459879383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69">
+        <v>939.798945015772</v>
+      </c>
+      <c r="D69">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E69">
+        <v>0.08572461415814758</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70">
+        <v>2647.504007791044</v>
+      </c>
+      <c r="D70">
+        <v>0.3</v>
+      </c>
+      <c r="E70">
+        <v>0.06323454685657411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71">
+        <v>313.7797239284938</v>
+      </c>
+      <c r="D71">
+        <v>0.3</v>
+      </c>
+      <c r="E71">
+        <v>0.05332762133387046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72">
+        <v>64.91167408484395</v>
+      </c>
+      <c r="D72">
+        <v>0.3</v>
+      </c>
+      <c r="E72">
+        <v>0.06536925889712382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73">
+        <v>53.57064232089613</v>
+      </c>
+      <c r="D73">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E73">
+        <v>0.05899850475869618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74">
+        <v>78.56807063496755</v>
+      </c>
+      <c r="D74">
+        <v>0.3</v>
+      </c>
+      <c r="E74">
+        <v>0.06596815334590055</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75">
+        <v>23.72904097965595</v>
+      </c>
+      <c r="D75">
+        <v>0.3</v>
+      </c>
+      <c r="E75">
+        <v>0.06536925889712382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76">
+        <v>3.726047757136057</v>
+      </c>
+      <c r="D76">
+        <v>0.3</v>
+      </c>
+      <c r="E76">
+        <v>0.06536925889712381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77">
+        <v>236.2103005408986</v>
+      </c>
+      <c r="D77">
+        <v>0.3</v>
+      </c>
+      <c r="E77">
+        <v>0.09455976803078406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78">
+        <v>47.26385555174958</v>
+      </c>
+      <c r="D78">
+        <v>0.3</v>
+      </c>
+      <c r="E78">
+        <v>0.06439217377622558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79">
+        <v>792.1290929335046</v>
+      </c>
+      <c r="D79">
+        <v>0.3</v>
+      </c>
+      <c r="E79">
+        <v>0.05922460507914053</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80">
+        <v>80.50909707054494</v>
+      </c>
+      <c r="D80">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E80">
+        <v>0.06875243131558065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81">
+        <v>75.45474883756356</v>
+      </c>
+      <c r="D81">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E81">
+        <v>0.05890300455703634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82">
+        <v>428.0835630738745</v>
+      </c>
+      <c r="D82">
+        <v>0.3</v>
+      </c>
+      <c r="E82">
+        <v>0.06297198633037283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83">
+        <v>174.291592217852</v>
+      </c>
+      <c r="D83">
+        <v>0.3</v>
+      </c>
+      <c r="E83">
+        <v>0.0671126654670204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84">
+        <v>155.0102027654304</v>
+      </c>
+      <c r="D84">
+        <v>0.3</v>
+      </c>
+      <c r="E84">
+        <v>0.08179957929574162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85">
+        <v>50.47281390518645</v>
+      </c>
+      <c r="D85">
+        <v>0.3</v>
+      </c>
+      <c r="E85">
+        <v>0.06615047693995603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86">
+        <v>119.2026560787126</v>
+      </c>
+      <c r="D86">
+        <v>0.3</v>
+      </c>
+      <c r="E86">
+        <v>0.08010931188085524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87">
+        <v>281.4677299644492</v>
+      </c>
+      <c r="D87">
+        <v>0.3</v>
+      </c>
+      <c r="E87">
+        <v>0.05770146165732867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88">
+        <v>94.3524263595417</v>
+      </c>
+      <c r="D88">
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="E88">
+        <v>0.05937849361833965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2">
         <v>266.0719393051889</v>
       </c>
       <c r="D2">

--- a/resultados/por_vector/R1.xlsx
+++ b/resultados/por_vector/R1.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="R1_0" sheetId="1" r:id="rId1"/>
-    <sheet name="R1_0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="R1_0.2" sheetId="3" r:id="rId3"/>
-    <sheet name="R1_0.3" sheetId="4" r:id="rId4"/>
-    <sheet name="R1_0.4" sheetId="5" r:id="rId5"/>
+    <sheet name="R1_0.25" sheetId="2" r:id="rId2"/>
+    <sheet name="R1_0.5" sheetId="3" r:id="rId3"/>
+    <sheet name="R1_0.75" sheetId="4" r:id="rId4"/>
+    <sheet name="R1_1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -943,13 +943,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>443.4532321753148</v>
+        <v>275.3362336888479</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1429571992828223</v>
+        <v>0.08876087481909992</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -960,13 +960,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>697.1603835099784</v>
+        <v>432.8607851860765</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1762286105940289</v>
+        <v>0.1094188031309597</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -977,13 +977,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>747.6611640215455</v>
+        <v>464.2162781569902</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1115412746563547</v>
+        <v>0.06925500196285099</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -994,13 +994,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>540.2518912310009</v>
+        <v>335.4376745550784</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1137611899833651</v>
+        <v>0.07063332797537976</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1011,13 +1011,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>483.2194184105568</v>
+        <v>300.0267109517404</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1279712442824568</v>
+        <v>0.07945622641730414</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1028,13 +1028,13 @@
         <v>97</v>
       </c>
       <c r="C7">
-        <v>1015.46082837188</v>
+        <v>630.4907477412108</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.178244835592747</v>
+        <v>0.1106706596000019</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1045,13 +1045,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>2795.083893702684</v>
+        <v>1735.443145518011</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1177621189678822</v>
+        <v>0.07311746979220607</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1062,13 +1062,13 @@
         <v>99</v>
       </c>
       <c r="C9">
-        <v>1914.224905980177</v>
+        <v>1188.525503491211</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2726427725367008</v>
+        <v>0.1692815131022947</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1079,13 +1079,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>1879.353096237842</v>
+        <v>1166.873901789563</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1577167754479559</v>
+        <v>0.09792496658186998</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1096,13 +1096,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>784.2671142023038</v>
+        <v>486.9445924911317</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.118810349068672</v>
+        <v>0.07376830669461169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1113,13 +1113,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>549.0160483882231</v>
+        <v>340.8792630880779</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1207956102064297</v>
+        <v>0.07500093797317445</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1130,13 +1130,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>1770.457858269206</v>
+        <v>1099.261800865509</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1188306502630516</v>
+        <v>0.07378091152866023</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1147,13 +1147,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>2837.184258603407</v>
+        <v>1761.582893901012</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1261475371750214</v>
+        <v>0.07832390262331654</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1164,13 +1164,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>1294.492523324709</v>
+        <v>803.7390868980995</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1125156473989317</v>
+        <v>0.06985998147745323</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1181,13 +1181,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>520.4619334031829</v>
+        <v>323.150262810567</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09821889666034779</v>
+        <v>0.06098325397444178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1198,13 +1198,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>406.0384245605827</v>
+        <v>252.1057068477209</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08078758944699217</v>
+        <v>0.05016030776914463</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1215,13 +1215,13 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>2159.528389336091</v>
+        <v>1340.832291033737</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1245833846392114</v>
+        <v>0.07735273399294666</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1232,13 +1232,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>982.138976768494</v>
+        <v>609.8015014930567</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09079587471281261</v>
+        <v>0.05637436456439462</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1249,13 +1249,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>1003.101370907691</v>
+        <v>622.8168686898978</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09885694007171492</v>
+        <v>0.06137940954862499</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1266,13 +1266,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>825.3418164337072</v>
+        <v>512.4475158925661</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.105367268790209</v>
+        <v>0.06542161571461332</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1283,13 +1283,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>737.4764472563617</v>
+        <v>457.8926765867467</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0866497999361252</v>
+        <v>0.05380010299456547</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1300,13 +1300,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>997.5297459954905</v>
+        <v>619.3574955079117</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1027851361149398</v>
+        <v>0.06381839211828044</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1317,13 +1317,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>1188.936562483807</v>
+        <v>738.2003139393958</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1763739152178916</v>
+        <v>0.1095090215011713</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1334,13 +1334,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>1947.920546472565</v>
+        <v>1209.446831991619</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1334192155118195</v>
+        <v>0.08283882410901501</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1351,13 +1351,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>1145.121294509588</v>
+        <v>710.9957972355467</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.1800788322864582</v>
+        <v>0.1118093721081218</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1368,13 +1368,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>382.7615488034737</v>
+        <v>237.6532982553489</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.1394903603511201</v>
+        <v>0.08660834484524377</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1385,13 +1385,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>2373.859865985475</v>
+        <v>1473.908830474272</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.09144650664453466</v>
+        <v>0.05677833624077475</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1402,13 +1402,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>429.7985140065262</v>
+        <v>266.858138593601</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.08869139785524684</v>
+        <v>0.0550677132879903</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1419,13 +1419,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>737.0262980084902</v>
+        <v>457.6131828554714</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.0790546281249051</v>
+        <v>0.049084327239673</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1436,13 +1436,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>258.5410525708428</v>
+        <v>160.5258785004496</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0.07274649762826189</v>
+        <v>0.04516766418133079</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1453,13 +1453,13 @@
         <v>122</v>
       </c>
       <c r="C32">
-        <v>478.7936442811134</v>
+        <v>297.2787864998634</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.09568218310973489</v>
+        <v>0.05940823071540036</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1470,13 +1470,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>2445.707061083875</v>
+        <v>1518.518125579557</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.1006463811145628</v>
+        <v>0.06249045784278013</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1487,13 +1487,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>931.7537287396278</v>
+        <v>578.5177416302761</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.09136631974305039</v>
+        <v>0.05672854889490842</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1504,13 +1504,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>1002.104404247687</v>
+        <v>622.1978608095571</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.09899282863258783</v>
+        <v>0.06146378156767333</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1521,13 +1521,13 @@
         <v>126</v>
       </c>
       <c r="C36">
-        <v>958.5060810096043</v>
+        <v>595.1280431951106</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.1003356098617821</v>
+        <v>0.06229750268974256</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1538,13 +1538,13 @@
         <v>127</v>
       </c>
       <c r="C37">
-        <v>334.1780846396578</v>
+        <v>207.4882502370862</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.09221249576149497</v>
+        <v>0.05725393218462644</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1555,13 +1555,13 @@
         <v>128</v>
       </c>
       <c r="C38">
-        <v>1422.146623158784</v>
+        <v>882.9984011009535</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.09295075968358064</v>
+        <v>0.05771231379744794</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1572,13 +1572,13 @@
         <v>129</v>
       </c>
       <c r="C39">
-        <v>1507.965277619394</v>
+        <v>936.2824531384576</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.0894457131276703</v>
+        <v>0.0555360610438613</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1589,13 +1589,13 @@
         <v>130</v>
       </c>
       <c r="C40">
-        <v>556.0945383054585</v>
+        <v>345.2742355735768</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.09288367100475338</v>
+        <v>0.05767065902348035</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1606,13 +1606,13 @@
         <v>131</v>
       </c>
       <c r="C41">
-        <v>856.8552883110372</v>
+        <v>532.0139549837872</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.08599511123153725</v>
+        <v>0.05339361250339093</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1623,13 +1623,13 @@
         <v>132</v>
       </c>
       <c r="C42">
-        <v>330.4088855523658</v>
+        <v>205.1479874868801</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.08624611995624271</v>
+        <v>0.05354946162539286</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1640,13 +1640,13 @@
         <v>133</v>
       </c>
       <c r="C43">
-        <v>1790.079321412167</v>
+        <v>1111.444595733744</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.09321387843221035</v>
+        <v>0.05787568192739762</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1657,13 +1657,13 @@
         <v>134</v>
       </c>
       <c r="C44">
-        <v>1062.936297161738</v>
+        <v>659.9678511216281</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.08837182384118207</v>
+        <v>0.05486929257745495</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1674,13 +1674,13 @@
         <v>135</v>
       </c>
       <c r="C45">
-        <v>2096.112412225434</v>
+        <v>1301.457865442803</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.09405090017613109</v>
+        <v>0.05839538140812144</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1691,13 +1691,13 @@
         <v>136</v>
       </c>
       <c r="C46">
-        <v>244.2552238996978</v>
+        <v>151.6559324135933</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.08034711312490059</v>
+        <v>0.04988681987289255</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1708,13 +1708,13 @@
         <v>137</v>
       </c>
       <c r="C47">
-        <v>566.7271345351656</v>
+        <v>351.8759215864649</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.07516274993835088</v>
+        <v>0.04666789410961073</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1725,13 +1725,13 @@
         <v>138</v>
       </c>
       <c r="C48">
-        <v>253.8560800698037</v>
+        <v>157.6170200464381</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.0916778909605647</v>
+        <v>0.05692200073905312</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1742,13 +1742,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>974.6214975819635</v>
+        <v>605.1339644093821</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.1267882785978878</v>
+        <v>0.07872173336924446</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1759,13 +1759,13 @@
         <v>140</v>
       </c>
       <c r="C50">
-        <v>860.0841092585549</v>
+        <v>534.018701672822</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.09058284457699367</v>
+        <v>0.05624209601609499</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1776,13 +1776,13 @@
         <v>141</v>
       </c>
       <c r="C51">
-        <v>1726.825181270349</v>
+        <v>1072.170653301435</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.08993412745535904</v>
+        <v>0.0558393132285524</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1793,13 +1793,13 @@
         <v>142</v>
       </c>
       <c r="C52">
-        <v>1144.078761843652</v>
+        <v>710.3484978206156</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0.08921387724919308</v>
+        <v>0.05539211617440858</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1810,13 +1810,13 @@
         <v>143</v>
       </c>
       <c r="C53">
-        <v>786.5520305974256</v>
+        <v>488.3632770983915</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.09984158804232364</v>
+        <v>0.06199076886245132</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1827,13 +1827,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>471.024248947596</v>
+        <v>292.4548368836282</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.07736929187706899</v>
+        <v>0.04803791670230424</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1844,13 +1844,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>2236.296773384341</v>
+        <v>1388.497109320298</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0.09108038827778035</v>
+        <v>0.05655101654870272</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1861,13 +1861,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>849.4622082845581</v>
+        <v>527.4236562506702</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.09750484484441667</v>
+        <v>0.06053990544658749</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1878,13 +1878,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>1294.183239954538</v>
+        <v>803.5470555583624</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.08844278274820871</v>
+        <v>0.05491335034226491</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1895,13 +1895,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>432.787786265217</v>
+        <v>268.7141515966883</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.09551705722030832</v>
+        <v>0.05930570549474471</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1912,13 +1912,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>1965.281462576307</v>
+        <v>1220.226072972554</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.1497585508326074</v>
+        <v>0.09298377451593039</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1929,13 +1929,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>826.4466224293921</v>
+        <v>513.133480273334</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0.09752733330533303</v>
+        <v>0.06055386833530021</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1946,13 +1946,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>1315.625025041337</v>
+        <v>816.8600724021113</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.1126005670182589</v>
+        <v>0.06991270732643884</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1963,13 +1963,13 @@
         <v>152</v>
       </c>
       <c r="C62">
-        <v>677.1073578045504</v>
+        <v>420.4100368969866</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.09653654944461795</v>
+        <v>0.05993869930096758</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1980,13 +1980,13 @@
         <v>153</v>
       </c>
       <c r="C63">
-        <v>700.0939611541804</v>
+        <v>434.6822178900985</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.1297431358699371</v>
+        <v>0.08055637840809832</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1997,13 +1997,13 @@
         <v>154</v>
       </c>
       <c r="C64">
-        <v>439.4173981660223</v>
+        <v>272.8304196473965</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.1329151234621967</v>
+        <v>0.08252583776388278</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2014,13 +2014,13 @@
         <v>155</v>
       </c>
       <c r="C65">
-        <v>2435.178425811874</v>
+        <v>1511.98098801613</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.1069045360117597</v>
+        <v>0.06637609148848195</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2031,13 +2031,13 @@
         <v>156</v>
       </c>
       <c r="C66">
-        <v>577.6487135424708</v>
+        <v>358.6570344786983</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.1092996619758696</v>
+        <v>0.06786320425330149</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2048,13 +2048,13 @@
         <v>157</v>
       </c>
       <c r="C67">
-        <v>1266.930738797324</v>
+        <v>786.626215923436</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.07645930831607266</v>
+        <v>0.0474729158674373</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2065,13 +2065,13 @@
         <v>158</v>
       </c>
       <c r="C68">
-        <v>2150.213285329143</v>
+        <v>1335.048624419985</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.08259567799827691</v>
+        <v>0.05128293413820861</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2082,13 +2082,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>1342.569921451103</v>
+        <v>833.5899229394688</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.1224637345116394</v>
+        <v>0.07603666176589152</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2099,13 +2099,13 @@
         <v>160</v>
       </c>
       <c r="C70">
-        <v>3782.148582558635</v>
+        <v>2348.302978568926</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.090335066937963</v>
+        <v>0.05608825304693145</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2116,13 +2116,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>448.2567484692769</v>
+        <v>278.3186949471744</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.07618231619124352</v>
+        <v>0.04730093387953337</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2133,13 +2133,13 @@
         <v>162</v>
       </c>
       <c r="C72">
-        <v>92.7309629783485</v>
+        <v>57.57584394537589</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.09338465556731974</v>
+        <v>0.05798171595707542</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2150,13 +2150,13 @@
         <v>163</v>
       </c>
       <c r="C73">
-        <v>76.52948902985162</v>
+        <v>47.51649045886536</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0.08428357822670883</v>
+        <v>0.05233093662870634</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2167,13 +2167,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>112.2401009070965</v>
+        <v>69.68889707043267</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.09424021906557221</v>
+        <v>0.05851292785090904</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2184,13 +2184,13 @@
         <v>165</v>
       </c>
       <c r="C75">
-        <v>33.89862997093707</v>
+        <v>21.04736289241838</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.09338465556731974</v>
+        <v>0.05798171595707542</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2201,13 +2201,13 @@
         <v>166</v>
       </c>
       <c r="C76">
-        <v>5.322925367337225</v>
+        <v>3.304957809553299</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.09338465556731974</v>
+        <v>0.05798171595707542</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2218,13 +2218,13 @@
         <v>167</v>
       </c>
       <c r="C77">
-        <v>337.443286486998</v>
+        <v>209.5155855086557</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1350853829011201</v>
+        <v>0.08387333286975809</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2235,13 +2235,13 @@
         <v>168</v>
       </c>
       <c r="C78">
-        <v>67.51979364535654</v>
+        <v>41.9224493878783</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0.09198881968032227</v>
+        <v>0.05711505366195953</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2252,13 +2252,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>1131.612989905007</v>
+        <v>702.6086090418731</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.08460657868448647</v>
+        <v>0.05253148478817743</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2269,13 +2269,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>115.0129958150642</v>
+        <v>71.41056326875903</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.09821775902225809</v>
+        <v>0.06098254762490097</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2286,13 +2286,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>107.7924983393765</v>
+        <v>66.9274195321277</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.08414714936719479</v>
+        <v>0.05224622914295683</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2303,13 +2303,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>611.5479472483922</v>
+        <v>379.7047722248887</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.0899599804719612</v>
+        <v>0.05585536514046612</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2320,13 +2320,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>248.9879888826457</v>
+        <v>154.5944648016585</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.09587523638145773</v>
+        <v>0.05952809580348807</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2337,13 +2337,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>221.4431468077577</v>
+        <v>137.4921132475819</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0.1168565418510595</v>
+        <v>0.07255520487999047</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2354,13 +2354,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>72.10401986455207</v>
+        <v>44.76875535655813</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.09450068134279432</v>
+        <v>0.05867464660099362</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2371,13 +2371,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>170.2895086838751</v>
+        <v>105.7312666946721</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.1144418741155075</v>
+        <v>0.07105595880018284</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2388,13 +2388,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>402.0967570920703</v>
+        <v>249.6583599879173</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.08243065951046952</v>
+        <v>0.05118047560227906</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2405,13 +2405,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>134.789180513631</v>
+        <v>83.68942339776974</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.08482641945477093</v>
+        <v>0.0526679819998551</v>
       </c>
     </row>
   </sheetData>
@@ -2452,13 +2452,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>399.1079089577834</v>
+        <v>247.8026103199632</v>
       </c>
       <c r="D2">
-        <v>0.09999999999999998</v>
+        <v>27.53362336888478</v>
       </c>
       <c r="E2">
-        <v>0.1286614793545401</v>
+        <v>0.07988478733718993</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2469,13 +2469,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>627.4443451589806</v>
+        <v>389.5747066674688</v>
       </c>
       <c r="D3">
-        <v>0.09999999999999994</v>
+        <v>43.28607851860767</v>
       </c>
       <c r="E3">
-        <v>0.158605749534626</v>
+        <v>0.0984769228178637</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2486,13 +2486,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>672.8950476193909</v>
+        <v>417.7946503412912</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>46.42162781569903</v>
       </c>
       <c r="E4">
-        <v>0.1003871471907192</v>
+        <v>0.06232950176656589</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2503,13 +2503,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>486.2267021079008</v>
+        <v>301.8939070995706</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999996</v>
+        <v>33.54376745550786</v>
       </c>
       <c r="E5">
-        <v>0.1023850709850286</v>
+        <v>0.06356999517784177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2520,13 +2520,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>434.8974765695011</v>
+        <v>270.0240398565664</v>
       </c>
       <c r="D6">
-        <v>0.09999999999999996</v>
+        <v>30.00267109517404</v>
       </c>
       <c r="E6">
-        <v>0.1151741198542111</v>
+        <v>0.07151060377557372</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2537,13 +2537,13 @@
         <v>97</v>
       </c>
       <c r="C7">
-        <v>913.9147455346919</v>
+        <v>567.4416729670897</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>63.0490747741211</v>
       </c>
       <c r="E7">
-        <v>0.1604203520334723</v>
+        <v>0.09960359364000171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2554,13 +2554,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>2515.575504332416</v>
+        <v>1561.89883096621</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>173.5443145518011</v>
       </c>
       <c r="E8">
-        <v>0.105985907071094</v>
+        <v>0.06580572281298547</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2571,13 +2571,13 @@
         <v>99</v>
       </c>
       <c r="C9">
-        <v>1722.802415382159</v>
+        <v>1069.67295314209</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>118.852550349121</v>
       </c>
       <c r="E9">
-        <v>0.2453784952830307</v>
+        <v>0.1523533617920652</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2588,13 +2588,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>1691.417786614058</v>
+        <v>1050.186511610606</v>
       </c>
       <c r="D10">
-        <v>0.09999999999999998</v>
+        <v>116.6873901789563</v>
       </c>
       <c r="E10">
-        <v>0.1419450979031603</v>
+        <v>0.08813246992368298</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2605,13 +2605,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>705.8404027820734</v>
+        <v>438.2501332420186</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>48.69445924911315</v>
       </c>
       <c r="E11">
-        <v>0.1069293141618048</v>
+        <v>0.06639147602515053</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2622,13 +2622,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>494.1144435494008</v>
+        <v>306.7913367792701</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>34.08792630880777</v>
       </c>
       <c r="E12">
-        <v>0.1087160491857868</v>
+        <v>0.06750084417585701</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2639,13 +2639,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>1593.412072442285</v>
+        <v>989.3356207789579</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>109.9261800865509</v>
       </c>
       <c r="E13">
-        <v>0.1069475852367464</v>
+        <v>0.06640282037579422</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2656,13 +2656,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>2553.465832743067</v>
+        <v>1585.424604510911</v>
       </c>
       <c r="D14">
-        <v>0.09999999999999996</v>
+        <v>176.1582893901011</v>
       </c>
       <c r="E14">
-        <v>0.1135327834575193</v>
+        <v>0.07049151236098489</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2673,13 +2673,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>1165.043270992238</v>
+        <v>723.3651782082895</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>80.37390868980992</v>
       </c>
       <c r="E15">
-        <v>0.1012640826590385</v>
+        <v>0.06287398332970791</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2690,13 +2690,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>468.4157400628646</v>
+        <v>290.8352365295103</v>
       </c>
       <c r="D16">
-        <v>0.09999999999999995</v>
+        <v>32.3150262810567</v>
       </c>
       <c r="E16">
-        <v>0.08839700699431301</v>
+        <v>0.0548849285769976</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2707,13 +2707,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>365.4345821045244</v>
+        <v>226.8951361629488</v>
       </c>
       <c r="D17">
-        <v>0.09999999999999999</v>
+        <v>25.21057068477208</v>
       </c>
       <c r="E17">
-        <v>0.07270883050229296</v>
+        <v>0.04514427699223017</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2724,13 +2724,13 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>1943.575550402482</v>
+        <v>1206.749061930364</v>
       </c>
       <c r="D18">
-        <v>0.09999999999999996</v>
+        <v>134.0832291033737</v>
       </c>
       <c r="E18">
-        <v>0.1121250461752903</v>
+        <v>0.06961746059365199</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2741,13 +2741,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>883.9250790916446</v>
+        <v>548.821351343751</v>
       </c>
       <c r="D19">
-        <v>0.09999999999999994</v>
+        <v>60.9801501493057</v>
       </c>
       <c r="E19">
-        <v>0.08171628724153135</v>
+        <v>0.05073692810795516</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2758,13 +2758,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>902.7912338169222</v>
+        <v>560.5351818209081</v>
       </c>
       <c r="D20">
-        <v>0.09999999999999998</v>
+        <v>62.28168686898971</v>
       </c>
       <c r="E20">
-        <v>0.08897124606454343</v>
+        <v>0.0552414685937625</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2775,13 +2775,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>742.8076347903365</v>
+        <v>461.2027643033095</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>51.24475158925662</v>
       </c>
       <c r="E21">
-        <v>0.09483054191118812</v>
+        <v>0.05887945414315198</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2792,13 +2792,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>663.7288025307255</v>
+        <v>412.103408928072</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>45.78926765867465</v>
       </c>
       <c r="E22">
-        <v>0.07798481994251269</v>
+        <v>0.04842009269510892</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2809,13 +2809,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>897.7767713959415</v>
+        <v>557.4217459571206</v>
       </c>
       <c r="D23">
-        <v>0.09999999999999996</v>
+        <v>61.93574955079112</v>
       </c>
       <c r="E23">
-        <v>0.09250662250344581</v>
+        <v>0.05743655290645241</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2826,13 +2826,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>1070.042906235427</v>
+        <v>664.3802825454562</v>
       </c>
       <c r="D24">
-        <v>0.09999999999999996</v>
+        <v>73.82003139393953</v>
       </c>
       <c r="E24">
-        <v>0.1587365236961025</v>
+        <v>0.09855811935105419</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2843,13 +2843,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>1753.128491825308</v>
+        <v>1088.502148792457</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>120.9446831991618</v>
       </c>
       <c r="E25">
-        <v>0.1200772939606375</v>
+        <v>0.07455494169811351</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2860,13 +2860,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>1030.609165058629</v>
+        <v>639.8962175119921</v>
       </c>
       <c r="D26">
-        <v>0.1</v>
+        <v>71.0995797235546</v>
       </c>
       <c r="E26">
-        <v>0.1620709490578124</v>
+        <v>0.1006284348973096</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2877,13 +2877,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>344.4853939231263</v>
+        <v>213.887968429814</v>
       </c>
       <c r="D27">
-        <v>0.09999999999999995</v>
+        <v>23.76532982553488</v>
       </c>
       <c r="E27">
-        <v>0.1255413243160081</v>
+        <v>0.0779475103607194</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2894,13 +2894,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>2136.473879386928</v>
+        <v>1326.517947426845</v>
       </c>
       <c r="D28">
-        <v>0.09999999999999992</v>
+        <v>147.3908830474272</v>
       </c>
       <c r="E28">
-        <v>0.0823018559800812</v>
+        <v>0.05110050261669728</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2911,13 +2911,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>386.8186626058736</v>
+        <v>240.1723247342409</v>
       </c>
       <c r="D29">
-        <v>0.09999999999999994</v>
+        <v>26.68581385936008</v>
       </c>
       <c r="E29">
-        <v>0.07982225806972217</v>
+        <v>0.04956094195919127</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2928,13 +2928,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>663.3236682076413</v>
+        <v>411.8518645699243</v>
       </c>
       <c r="D30">
-        <v>0.09999999999999992</v>
+        <v>45.76131828554713</v>
       </c>
       <c r="E30">
-        <v>0.07114916531241459</v>
+        <v>0.0441758945157057</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2945,13 +2945,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>232.6869473137585</v>
+        <v>144.4732906504047</v>
       </c>
       <c r="D31">
-        <v>0.1</v>
+        <v>16.05258785004497</v>
       </c>
       <c r="E31">
-        <v>0.06547184786543571</v>
+        <v>0.04065089776319771</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2962,13 +2962,13 @@
         <v>122</v>
       </c>
       <c r="C32">
-        <v>430.9142798530021</v>
+        <v>267.5509078498771</v>
       </c>
       <c r="D32">
-        <v>0.09999999999999998</v>
+        <v>29.72787864998634</v>
       </c>
       <c r="E32">
-        <v>0.08611396479876141</v>
+        <v>0.05346740764386033</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2979,13 +2979,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>2201.136354975487</v>
+        <v>1366.666313021601</v>
       </c>
       <c r="D33">
-        <v>0.1000000000000001</v>
+        <v>151.8518125579558</v>
       </c>
       <c r="E33">
-        <v>0.09058174300310648</v>
+        <v>0.05624141205850211</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2996,13 +2996,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>838.5783558656651</v>
+        <v>520.6659674672485</v>
       </c>
       <c r="D34">
-        <v>0.09999999999999992</v>
+        <v>57.85177416302759</v>
       </c>
       <c r="E34">
-        <v>0.08222968776874535</v>
+        <v>0.05105569400541758</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3013,13 +3013,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>901.893963822918</v>
+        <v>559.9780747286014</v>
       </c>
       <c r="D35">
-        <v>0.09999999999999999</v>
+        <v>62.21978608095571</v>
       </c>
       <c r="E35">
-        <v>0.08909354576932906</v>
+        <v>0.055317403410906</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3030,13 +3030,13 @@
         <v>126</v>
       </c>
       <c r="C36">
-        <v>862.6554729086439</v>
+        <v>535.6152388755996</v>
       </c>
       <c r="D36">
-        <v>0.09999999999999992</v>
+        <v>59.51280431951102</v>
       </c>
       <c r="E36">
-        <v>0.09030204887560388</v>
+        <v>0.05606775242076831</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3047,13 +3047,13 @@
         <v>127</v>
       </c>
       <c r="C37">
-        <v>300.760276175692</v>
+        <v>186.7394252133776</v>
       </c>
       <c r="D37">
-        <v>0.09999999999999989</v>
+        <v>20.7488250237086</v>
       </c>
       <c r="E37">
-        <v>0.08299124618534548</v>
+        <v>0.0515285389661638</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3064,13 +3064,13 @@
         <v>128</v>
       </c>
       <c r="C38">
-        <v>1279.931960842905</v>
+        <v>794.6985609908581</v>
       </c>
       <c r="D38">
-        <v>0.09999999999999994</v>
+        <v>88.29984011009537</v>
       </c>
       <c r="E38">
-        <v>0.08365568371522258</v>
+        <v>0.05194108241770315</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3081,13 +3081,13 @@
         <v>129</v>
       </c>
       <c r="C39">
-        <v>1357.168749857454</v>
+        <v>842.6542078246119</v>
       </c>
       <c r="D39">
-        <v>0.1</v>
+        <v>93.6282453138457</v>
       </c>
       <c r="E39">
-        <v>0.08050114181490327</v>
+        <v>0.04998245493947517</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3098,13 +3098,13 @@
         <v>130</v>
       </c>
       <c r="C40">
-        <v>500.4850844749127</v>
+        <v>310.7468120162192</v>
       </c>
       <c r="D40">
-        <v>0.09999999999999994</v>
+        <v>34.52742355735768</v>
       </c>
       <c r="E40">
-        <v>0.08359530390427805</v>
+        <v>0.05190359312113232</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3115,13 +3115,13 @@
         <v>131</v>
       </c>
       <c r="C41">
-        <v>771.1697594799334</v>
+        <v>478.8125594854085</v>
       </c>
       <c r="D41">
-        <v>0.1</v>
+        <v>53.2013954983787</v>
       </c>
       <c r="E41">
-        <v>0.07739560010838352</v>
+        <v>0.04805425125305184</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3132,13 +3132,13 @@
         <v>132</v>
       </c>
       <c r="C42">
-        <v>297.3679969971292</v>
+        <v>184.633188738192</v>
       </c>
       <c r="D42">
-        <v>0.09999999999999995</v>
+        <v>20.51479874868801</v>
       </c>
       <c r="E42">
-        <v>0.07762150796061844</v>
+        <v>0.04819451546285358</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3149,13 +3149,13 @@
         <v>133</v>
       </c>
       <c r="C43">
-        <v>1611.071389270951</v>
+        <v>1000.30013616037</v>
       </c>
       <c r="D43">
-        <v>0.1</v>
+        <v>111.1444595733743</v>
       </c>
       <c r="E43">
-        <v>0.08389249058898932</v>
+        <v>0.05208811373465786</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3166,13 +3166,13 @@
         <v>134</v>
       </c>
       <c r="C44">
-        <v>956.6426674455641</v>
+        <v>593.9710660094653</v>
       </c>
       <c r="D44">
-        <v>0.09999999999999998</v>
+        <v>65.9967851121628</v>
       </c>
       <c r="E44">
-        <v>0.07953464145706386</v>
+        <v>0.04938236331970945</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3183,13 +3183,13 @@
         <v>135</v>
       </c>
       <c r="C45">
-        <v>1886.50117100289</v>
+        <v>1171.312078898522</v>
       </c>
       <c r="D45">
-        <v>0.1</v>
+        <v>130.1457865442803</v>
       </c>
       <c r="E45">
-        <v>0.08464581015851798</v>
+        <v>0.0525558432673093</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3200,13 +3200,13 @@
         <v>136</v>
       </c>
       <c r="C46">
-        <v>219.829701509728</v>
+        <v>136.490339172234</v>
       </c>
       <c r="D46">
-        <v>0.1</v>
+        <v>15.16559324135932</v>
       </c>
       <c r="E46">
-        <v>0.07231240181241053</v>
+        <v>0.0448981378856033</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3217,13 +3217,13 @@
         <v>137</v>
       </c>
       <c r="C47">
-        <v>510.0544210816491</v>
+        <v>316.6883294278184</v>
       </c>
       <c r="D47">
-        <v>0.1</v>
+        <v>35.18759215864651</v>
       </c>
       <c r="E47">
-        <v>0.0676464749445158</v>
+        <v>0.04200110469864966</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3234,13 +3234,13 @@
         <v>138</v>
       </c>
       <c r="C48">
-        <v>228.4704720628233</v>
+        <v>141.8553180417943</v>
       </c>
       <c r="D48">
-        <v>0.09999999999999999</v>
+        <v>15.76170200464381</v>
       </c>
       <c r="E48">
-        <v>0.08251010186450823</v>
+        <v>0.0512298006651478</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3251,13 +3251,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>877.1593478237671</v>
+        <v>544.6205679684439</v>
       </c>
       <c r="D49">
-        <v>0.1</v>
+        <v>60.51339644093821</v>
       </c>
       <c r="E49">
-        <v>0.114109450738099</v>
+        <v>0.07084956003232</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3268,13 +3268,13 @@
         <v>140</v>
       </c>
       <c r="C50">
-        <v>774.0756983326994</v>
+        <v>480.6168315055398</v>
       </c>
       <c r="D50">
-        <v>0.1</v>
+        <v>53.4018701672822</v>
       </c>
       <c r="E50">
-        <v>0.08152456011929431</v>
+        <v>0.0506178864144855</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3285,13 +3285,13 @@
         <v>141</v>
       </c>
       <c r="C51">
-        <v>1554.142663143314</v>
+        <v>964.9535879712912</v>
       </c>
       <c r="D51">
-        <v>0.09999999999999999</v>
+        <v>107.2170653301434</v>
       </c>
       <c r="E51">
-        <v>0.08094071470982314</v>
+        <v>0.05025538190569716</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3302,13 +3302,13 @@
         <v>142</v>
       </c>
       <c r="C52">
-        <v>1029.670885659287</v>
+        <v>639.3136480385541</v>
       </c>
       <c r="D52">
-        <v>0.1</v>
+        <v>71.03484978206154</v>
       </c>
       <c r="E52">
-        <v>0.08029248952427377</v>
+        <v>0.04985290455696773</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3319,13 +3319,13 @@
         <v>143</v>
       </c>
       <c r="C53">
-        <v>707.8968275376831</v>
+        <v>439.5269493885523</v>
       </c>
       <c r="D53">
-        <v>0.1</v>
+        <v>48.83632770983917</v>
       </c>
       <c r="E53">
-        <v>0.08985742923809127</v>
+        <v>0.05579169197620619</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3336,13 +3336,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>423.9218240528364</v>
+        <v>263.2093531952654</v>
       </c>
       <c r="D54">
-        <v>0.1</v>
+        <v>29.24548368836281</v>
       </c>
       <c r="E54">
-        <v>0.0696323626893621</v>
+        <v>0.04323412503207382</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3353,13 +3353,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>2012.667096045907</v>
+        <v>1249.647398388268</v>
       </c>
       <c r="D55">
-        <v>0.09999999999999996</v>
+        <v>138.8497109320297</v>
       </c>
       <c r="E55">
-        <v>0.08197234945000233</v>
+        <v>0.05089591489383245</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3370,13 +3370,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>764.5159874561023</v>
+        <v>474.6812906256032</v>
       </c>
       <c r="D56">
-        <v>0.1</v>
+        <v>52.74236562506701</v>
       </c>
       <c r="E56">
-        <v>0.08775436035997501</v>
+        <v>0.05448591490192874</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3387,13 +3387,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>1164.764915959084</v>
+        <v>723.1923500025263</v>
       </c>
       <c r="D57">
-        <v>0.1</v>
+        <v>80.35470555583618</v>
       </c>
       <c r="E57">
-        <v>0.07959850447338783</v>
+        <v>0.04942201530803843</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3404,13 +3404,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>389.5090076386953</v>
+        <v>241.8427364370195</v>
       </c>
       <c r="D58">
-        <v>0.09999999999999994</v>
+        <v>26.87141515966883</v>
       </c>
       <c r="E58">
-        <v>0.0859653514982775</v>
+        <v>0.05337513494527024</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3421,13 +3421,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>1768.753316318676</v>
+        <v>1098.203465675299</v>
       </c>
       <c r="D59">
-        <v>0.09999999999999998</v>
+        <v>122.0226072972555</v>
       </c>
       <c r="E59">
-        <v>0.1347826957493466</v>
+        <v>0.08368539706433735</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3438,13 +3438,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>743.8019601864529</v>
+        <v>461.8201322460006</v>
       </c>
       <c r="D60">
-        <v>0.09999999999999994</v>
+        <v>51.3133480273334</v>
       </c>
       <c r="E60">
-        <v>0.08777459997479974</v>
+        <v>0.0544984815017702</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3455,13 +3455,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>1184.062522537203</v>
+        <v>735.1740651619002</v>
       </c>
       <c r="D61">
-        <v>0.09999999999999994</v>
+        <v>81.6860072402111</v>
       </c>
       <c r="E61">
-        <v>0.101340510316433</v>
+        <v>0.06292143659379495</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3472,13 +3472,13 @@
         <v>152</v>
       </c>
       <c r="C62">
-        <v>609.3966220240953</v>
+        <v>378.3690332072879</v>
       </c>
       <c r="D62">
-        <v>0.09999999999999998</v>
+        <v>42.04100368969864</v>
       </c>
       <c r="E62">
-        <v>0.08688289450015617</v>
+        <v>0.05394482937087082</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3489,13 +3489,13 @@
         <v>153</v>
       </c>
       <c r="C63">
-        <v>630.0845650387624</v>
+        <v>391.2139961010887</v>
       </c>
       <c r="D63">
-        <v>0.09999999999999992</v>
+        <v>43.46822178900982</v>
       </c>
       <c r="E63">
-        <v>0.1167688222829434</v>
+        <v>0.07250074056728849</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3506,13 +3506,13 @@
         <v>154</v>
       </c>
       <c r="C64">
-        <v>395.4756583494201</v>
+        <v>245.5473776826568</v>
       </c>
       <c r="D64">
-        <v>0.1</v>
+        <v>27.28304196473965</v>
       </c>
       <c r="E64">
-        <v>0.119623611115977</v>
+        <v>0.0742732539874945</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3523,13 +3523,13 @@
         <v>155</v>
       </c>
       <c r="C65">
-        <v>2191.660583230686</v>
+        <v>1360.782889214517</v>
       </c>
       <c r="D65">
-        <v>0.09999999999999998</v>
+        <v>151.198098801613</v>
       </c>
       <c r="E65">
-        <v>0.09621408241058371</v>
+        <v>0.05973848233963375</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3540,13 +3540,13 @@
         <v>156</v>
       </c>
       <c r="C66">
-        <v>519.8838421882238</v>
+        <v>322.7913310308285</v>
       </c>
       <c r="D66">
-        <v>0.09999999999999991</v>
+        <v>35.86570344786981</v>
       </c>
       <c r="E66">
-        <v>0.09836969577828264</v>
+        <v>0.06107688382797134</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3557,13 +3557,13 @@
         <v>157</v>
       </c>
       <c r="C67">
-        <v>1140.237664917592</v>
+        <v>707.9635943310924</v>
       </c>
       <c r="D67">
-        <v>0.09999999999999992</v>
+        <v>78.66262159234361</v>
       </c>
       <c r="E67">
-        <v>0.06881337748446541</v>
+        <v>0.04272562428069357</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3574,13 +3574,13 @@
         <v>158</v>
       </c>
       <c r="C68">
-        <v>1935.191956796229</v>
+        <v>1201.543761977986</v>
       </c>
       <c r="D68">
-        <v>0.09999999999999994</v>
+        <v>133.5048624419985</v>
       </c>
       <c r="E68">
-        <v>0.07433611019844923</v>
+        <v>0.04615464072438775</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3591,13 +3591,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>1208.312929305993</v>
+        <v>750.230930645522</v>
       </c>
       <c r="D69">
-        <v>0.09999999999999991</v>
+        <v>83.35899229394681</v>
       </c>
       <c r="E69">
-        <v>0.1102173610604755</v>
+        <v>0.06843299558930238</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3608,13 +3608,13 @@
         <v>160</v>
       </c>
       <c r="C70">
-        <v>3403.933724302772</v>
+        <v>2113.472680712033</v>
       </c>
       <c r="D70">
-        <v>0.09999999999999998</v>
+        <v>234.8302978568927</v>
       </c>
       <c r="E70">
-        <v>0.08130156024416671</v>
+        <v>0.05047942774223831</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3625,13 +3625,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>403.4310736223492</v>
+        <v>250.4868254524569</v>
       </c>
       <c r="D71">
-        <v>0.09999999999999992</v>
+        <v>27.83186949471744</v>
       </c>
       <c r="E71">
-        <v>0.06856408457211918</v>
+        <v>0.04257084049158004</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3642,13 +3642,13 @@
         <v>162</v>
       </c>
       <c r="C72">
-        <v>83.45786668051365</v>
+        <v>51.8182595508383</v>
       </c>
       <c r="D72">
-        <v>0.1</v>
+        <v>5.757584394537588</v>
       </c>
       <c r="E72">
-        <v>0.08404619001058776</v>
+        <v>0.05218354436136787</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3659,13 +3659,13 @@
         <v>163</v>
       </c>
       <c r="C73">
-        <v>68.87654012686646</v>
+        <v>42.76484141297882</v>
       </c>
       <c r="D73">
-        <v>0.09999999999999996</v>
+        <v>4.751649045886538</v>
       </c>
       <c r="E73">
-        <v>0.07585522040403796</v>
+        <v>0.0470978429658357</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3676,13 +3676,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>101.0160908163868</v>
+        <v>62.72000736338941</v>
       </c>
       <c r="D74">
-        <v>0.1</v>
+        <v>6.968889707043267</v>
       </c>
       <c r="E74">
-        <v>0.08481619715901499</v>
+        <v>0.05266163506581814</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3693,13 +3693,13 @@
         <v>165</v>
       </c>
       <c r="C75">
-        <v>30.50876697384336</v>
+        <v>18.94262660317654</v>
       </c>
       <c r="D75">
-        <v>0.09999999999999994</v>
+        <v>2.104736289241838</v>
       </c>
       <c r="E75">
-        <v>0.08404619001058777</v>
+        <v>0.05218354436136788</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3710,13 +3710,13 @@
         <v>166</v>
       </c>
       <c r="C76">
-        <v>4.790632830603503</v>
+        <v>2.974462028597969</v>
       </c>
       <c r="D76">
-        <v>0.09999999999999996</v>
+        <v>0.3304957809553297</v>
       </c>
       <c r="E76">
-        <v>0.08404619001058777</v>
+        <v>0.05218354436136788</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3727,13 +3727,13 @@
         <v>167</v>
       </c>
       <c r="C77">
-        <v>303.6989578382982</v>
+        <v>188.5640269577902</v>
       </c>
       <c r="D77">
-        <v>0.09999999999999989</v>
+        <v>20.95155855086557</v>
       </c>
       <c r="E77">
-        <v>0.1215768446110081</v>
+        <v>0.07548599958278229</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3744,13 +3744,13 @@
         <v>168</v>
       </c>
       <c r="C78">
-        <v>60.76781428082089</v>
+        <v>37.73020444909046</v>
       </c>
       <c r="D78">
-        <v>0.09999999999999994</v>
+        <v>4.19224493878783</v>
       </c>
       <c r="E78">
-        <v>0.08278993771229004</v>
+        <v>0.05140354829576357</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3761,13 +3761,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>1018.451690914506</v>
+        <v>632.3477481376858</v>
       </c>
       <c r="D79">
-        <v>0.1</v>
+        <v>70.26086090418733</v>
       </c>
       <c r="E79">
-        <v>0.07614592081603783</v>
+        <v>0.04727833630935969</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3778,13 +3778,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>103.5116962335578</v>
+        <v>64.26950694188314</v>
       </c>
       <c r="D80">
-        <v>0.09999999999999995</v>
+        <v>7.141056326875898</v>
       </c>
       <c r="E80">
-        <v>0.08839598312003227</v>
+        <v>0.05488429286241088</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3795,13 +3795,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>97.01324850543887</v>
+        <v>60.23467757891493</v>
       </c>
       <c r="D81">
-        <v>0.1</v>
+        <v>6.692741953212767</v>
       </c>
       <c r="E81">
-        <v>0.07573243443047531</v>
+        <v>0.04702160622866115</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3812,13 +3812,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>550.393152523553</v>
+        <v>341.7342950023998</v>
       </c>
       <c r="D82">
-        <v>0.1</v>
+        <v>37.97047722248885</v>
       </c>
       <c r="E82">
-        <v>0.08096398242476507</v>
+        <v>0.05026982862641952</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3829,13 +3829,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>224.0891899943811</v>
+        <v>139.1350183214927</v>
       </c>
       <c r="D83">
-        <v>0.09999999999999998</v>
+        <v>15.45944648016584</v>
       </c>
       <c r="E83">
-        <v>0.08628771274331196</v>
+        <v>0.05357528622313927</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3846,13 +3846,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>199.2988321269819</v>
+        <v>123.7429019228237</v>
       </c>
       <c r="D84">
-        <v>0.09999999999999992</v>
+        <v>13.74921132475819</v>
       </c>
       <c r="E84">
-        <v>0.1051708876659535</v>
+        <v>0.06529968439199142</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3863,13 +3863,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>64.89361787809686</v>
+        <v>40.29187982090232</v>
       </c>
       <c r="D85">
-        <v>0.1</v>
+        <v>4.476875535655815</v>
       </c>
       <c r="E85">
-        <v>0.0850506132085149</v>
+        <v>0.05280718194089425</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3880,13 +3880,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>153.2605578154876</v>
+        <v>95.15814002520486</v>
       </c>
       <c r="D86">
-        <v>0.09999999999999998</v>
+        <v>10.5731266694672</v>
       </c>
       <c r="E86">
-        <v>0.1029976867039567</v>
+        <v>0.06395036292016455</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3897,13 +3897,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>361.8870813828633</v>
+        <v>224.6925239891255</v>
       </c>
       <c r="D87">
-        <v>0.1</v>
+        <v>24.96583599879173</v>
       </c>
       <c r="E87">
-        <v>0.07418759355942257</v>
+        <v>0.04606242804205116</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3914,13 +3914,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>121.3102624622679</v>
+        <v>75.32048105799277</v>
       </c>
       <c r="D88">
-        <v>0.09999999999999996</v>
+        <v>8.368942339776979</v>
       </c>
       <c r="E88">
-        <v>0.07634377750929384</v>
+        <v>0.04740118379986958</v>
       </c>
     </row>
   </sheetData>
@@ -3961,13 +3961,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>354.7625857402519</v>
+        <v>220.2689869510783</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>55.06724673776958</v>
       </c>
       <c r="E2">
-        <v>0.1143657594262579</v>
+        <v>0.07100869985527992</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3978,13 +3978,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>557.7283068079827</v>
+        <v>346.2886281488612</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>86.57215703721528</v>
       </c>
       <c r="E3">
-        <v>0.1409828884752231</v>
+        <v>0.08753504250476775</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3995,13 +3995,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>598.1289312172364</v>
+        <v>371.3730225255922</v>
       </c>
       <c r="D4">
-        <v>0.1999999999999999</v>
+        <v>92.84325563139799</v>
       </c>
       <c r="E4">
-        <v>0.08923301972508375</v>
+        <v>0.0554040015702808</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4012,13 +4012,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>432.2015129848007</v>
+        <v>268.3501396440628</v>
       </c>
       <c r="D5">
-        <v>0.1999999999999999</v>
+        <v>67.08753491101567</v>
       </c>
       <c r="E5">
-        <v>0.09100895198669209</v>
+        <v>0.05650666238030381</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4029,13 +4029,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>386.5755347284455</v>
+        <v>240.0213687613924</v>
       </c>
       <c r="D6">
-        <v>0.1999999999999999</v>
+        <v>60.00534219034807</v>
       </c>
       <c r="E6">
-        <v>0.1023769954259654</v>
+        <v>0.06356498113384332</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4046,13 +4046,13 @@
         <v>97</v>
       </c>
       <c r="C7">
-        <v>812.368662697504</v>
+        <v>504.3925981929687</v>
       </c>
       <c r="D7">
-        <v>0.1999999999999999</v>
+        <v>126.0981495482421</v>
       </c>
       <c r="E7">
-        <v>0.1425958684741976</v>
+        <v>0.08853652768000153</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4063,13 +4063,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>2236.067114962148</v>
+        <v>1388.354516414409</v>
       </c>
       <c r="D8">
-        <v>0.1999999999999999</v>
+        <v>347.0886291036022</v>
       </c>
       <c r="E8">
-        <v>0.09420969517430577</v>
+        <v>0.05849397583376486</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4080,13 +4080,13 @@
         <v>99</v>
       </c>
       <c r="C9">
-        <v>1531.379924784141</v>
+        <v>950.8204027929687</v>
       </c>
       <c r="D9">
-        <v>0.1999999999999999</v>
+        <v>237.7051006982422</v>
       </c>
       <c r="E9">
-        <v>0.2181142180293607</v>
+        <v>0.1354252104818357</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4097,13 +4097,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>1503.482476990274</v>
+        <v>933.4991214316502</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>233.3747803579125</v>
       </c>
       <c r="E10">
-        <v>0.1261734203583647</v>
+        <v>0.07833997326549599</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4114,13 +4114,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>627.4136913618431</v>
+        <v>389.5556739929054</v>
       </c>
       <c r="D11">
-        <v>0.1999999999999999</v>
+        <v>97.3889184982263</v>
       </c>
       <c r="E11">
-        <v>0.0950482792549376</v>
+        <v>0.05901464535568936</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4131,13 +4131,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>439.2128387105785</v>
+        <v>272.7034104704623</v>
       </c>
       <c r="D12">
-        <v>0.1999999999999999</v>
+        <v>68.17585261761559</v>
       </c>
       <c r="E12">
-        <v>0.09663648816514379</v>
+        <v>0.06000075037853956</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4148,13 +4148,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>1416.366286615365</v>
+        <v>879.4094406924071</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>219.8523601731017</v>
       </c>
       <c r="E13">
-        <v>0.09506452021044128</v>
+        <v>0.05902472922292819</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>2269.747406882726</v>
+        <v>1409.26631512081</v>
       </c>
       <c r="D14">
-        <v>0.1999999999999999</v>
+        <v>352.3165787802025</v>
       </c>
       <c r="E14">
-        <v>0.1009180297400172</v>
+        <v>0.06265912209865324</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4182,13 +4182,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>1035.594018659767</v>
+        <v>642.9912695184796</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>160.7478173796198</v>
       </c>
       <c r="E15">
-        <v>0.09001251791914533</v>
+        <v>0.05588798518196259</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4199,13 +4199,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>416.3695467225464</v>
+        <v>258.5202102484536</v>
       </c>
       <c r="D16">
-        <v>0.1999999999999999</v>
+        <v>64.63005256211341</v>
       </c>
       <c r="E16">
-        <v>0.07857511732827824</v>
+        <v>0.04878660317955342</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4216,13 +4216,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>324.8307396484661</v>
+        <v>201.6845654781768</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>50.42114136954416</v>
       </c>
       <c r="E17">
-        <v>0.06463007155759375</v>
+        <v>0.04012824621531571</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4233,13 +4233,13 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>1727.622711468873</v>
+        <v>1072.66583282699</v>
       </c>
       <c r="D18">
-        <v>0.1999999999999999</v>
+        <v>268.1664582067474</v>
       </c>
       <c r="E18">
-        <v>0.09966670771136914</v>
+        <v>0.06188218719435733</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4250,13 +4250,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>785.7111814147952</v>
+        <v>487.8412011944454</v>
       </c>
       <c r="D19">
-        <v>0.2</v>
+        <v>121.9603002986113</v>
       </c>
       <c r="E19">
-        <v>0.07263669977025008</v>
+        <v>0.04509949165151571</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4267,13 +4267,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>802.4810967261531</v>
+        <v>498.2534949519182</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>124.5633737379795</v>
       </c>
       <c r="E20">
-        <v>0.07908555205737194</v>
+        <v>0.0491035276389</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>660.2734531469658</v>
+        <v>409.9580127140529</v>
       </c>
       <c r="D21">
-        <v>0.1999999999999999</v>
+        <v>102.4895031785132</v>
       </c>
       <c r="E21">
-        <v>0.08429381503216722</v>
+        <v>0.05233729257169066</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>589.9811578050893</v>
+        <v>366.3141412693974</v>
       </c>
       <c r="D22">
-        <v>0.2</v>
+        <v>91.57853531734929</v>
       </c>
       <c r="E22">
-        <v>0.06931983994890016</v>
+        <v>0.04304008239565238</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4318,13 +4318,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>798.0237967963925</v>
+        <v>495.4859964063294</v>
       </c>
       <c r="D23">
-        <v>0.1999999999999999</v>
+        <v>123.8714991015823</v>
       </c>
       <c r="E23">
-        <v>0.08222810889195183</v>
+        <v>0.05105471369462436</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4335,13 +4335,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>951.149249987046</v>
+        <v>590.5602511515166</v>
       </c>
       <c r="D24">
-        <v>0.1999999999999999</v>
+        <v>147.6400627878792</v>
       </c>
       <c r="E24">
-        <v>0.1410991321743133</v>
+        <v>0.08760721720093705</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>1558.336437178052</v>
+        <v>967.5574655932953</v>
       </c>
       <c r="D25">
-        <v>0.2</v>
+        <v>241.8893663983238</v>
       </c>
       <c r="E25">
-        <v>0.1067353724094556</v>
+        <v>0.06627105928721201</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4369,13 +4369,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>916.0970356076704</v>
+        <v>568.7966377884374</v>
       </c>
       <c r="D26">
-        <v>0.1999999999999999</v>
+        <v>142.1991594471093</v>
       </c>
       <c r="E26">
-        <v>0.1440630658291666</v>
+        <v>0.08944749768649746</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>306.209239042779</v>
+        <v>190.1226386042791</v>
       </c>
       <c r="D27">
-        <v>0.1999999999999999</v>
+        <v>47.53065965106978</v>
       </c>
       <c r="E27">
-        <v>0.1115922882808961</v>
+        <v>0.06928667587619503</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>1899.08789278838</v>
+        <v>1179.127064379418</v>
       </c>
       <c r="D28">
-        <v>0.2</v>
+        <v>294.7817660948542</v>
       </c>
       <c r="E28">
-        <v>0.07315720531562774</v>
+        <v>0.04542266899261981</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4420,13 +4420,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>343.838811205221</v>
+        <v>213.4865108748808</v>
       </c>
       <c r="D29">
-        <v>0.2</v>
+        <v>53.37162771872019</v>
       </c>
       <c r="E29">
-        <v>0.07095311828419748</v>
+        <v>0.04405417063039224</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4437,13 +4437,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>589.6210384067922</v>
+        <v>366.0905462843771</v>
       </c>
       <c r="D30">
-        <v>0.2</v>
+        <v>91.52263657109427</v>
       </c>
       <c r="E30">
-        <v>0.06324370249992407</v>
+        <v>0.0392674617917384</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4454,13 +4454,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>206.8328420566743</v>
+        <v>128.4207028003597</v>
       </c>
       <c r="D31">
-        <v>0.1999999999999999</v>
+        <v>32.10517570008992</v>
       </c>
       <c r="E31">
-        <v>0.05819719810260952</v>
+        <v>0.03613413134506464</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4471,13 +4471,13 @@
         <v>122</v>
       </c>
       <c r="C32">
-        <v>383.0349154248908</v>
+        <v>237.8230291998908</v>
       </c>
       <c r="D32">
-        <v>0.2</v>
+        <v>59.45575729997267</v>
       </c>
       <c r="E32">
-        <v>0.07654574648778792</v>
+        <v>0.04752658457232029</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4488,13 +4488,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>1956.5656488671</v>
+        <v>1214.814500463646</v>
       </c>
       <c r="D33">
-        <v>0.1999999999999999</v>
+        <v>303.7036251159113</v>
       </c>
       <c r="E33">
-        <v>0.08051710489165022</v>
+        <v>0.04999236627422411</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4505,13 +4505,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>745.4029829917023</v>
+        <v>462.8141933042209</v>
       </c>
       <c r="D34">
-        <v>0.2</v>
+        <v>115.7035483260552</v>
       </c>
       <c r="E34">
-        <v>0.07309305579444031</v>
+        <v>0.04538283911592674</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4522,13 +4522,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>801.6835233981493</v>
+        <v>497.7582886476457</v>
       </c>
       <c r="D35">
-        <v>0.2</v>
+        <v>124.4395721619114</v>
       </c>
       <c r="E35">
-        <v>0.07919426290607026</v>
+        <v>0.04917102525413867</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4539,13 +4539,13 @@
         <v>126</v>
       </c>
       <c r="C36">
-        <v>766.8048648076834</v>
+        <v>476.1024345560886</v>
       </c>
       <c r="D36">
-        <v>0.2</v>
+        <v>119.0256086390221</v>
       </c>
       <c r="E36">
-        <v>0.08026848788942567</v>
+        <v>0.04983800215179405</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4556,13 +4556,13 @@
         <v>127</v>
       </c>
       <c r="C37">
-        <v>267.3424677117262</v>
+        <v>165.990600189669</v>
       </c>
       <c r="D37">
-        <v>0.2</v>
+        <v>41.49765004741724</v>
       </c>
       <c r="E37">
-        <v>0.07376999660919598</v>
+        <v>0.04580314574770115</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>128</v>
       </c>
       <c r="C38">
-        <v>1137.717298527027</v>
+        <v>706.3987208807629</v>
       </c>
       <c r="D38">
-        <v>0.2</v>
+        <v>176.5996802201906</v>
       </c>
       <c r="E38">
-        <v>0.07436060774686451</v>
+        <v>0.04616985103795836</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4590,13 +4590,13 @@
         <v>129</v>
       </c>
       <c r="C39">
-        <v>1206.372222095515</v>
+        <v>749.0259625107661</v>
       </c>
       <c r="D39">
-        <v>0.2</v>
+        <v>187.2564906276915</v>
       </c>
       <c r="E39">
-        <v>0.07155657050213624</v>
+        <v>0.04442884883508904</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4607,13 +4607,13 @@
         <v>130</v>
       </c>
       <c r="C40">
-        <v>444.8756306443668</v>
+        <v>276.2193884588615</v>
       </c>
       <c r="D40">
-        <v>0.2</v>
+        <v>69.05484711471536</v>
       </c>
       <c r="E40">
-        <v>0.07430693680380271</v>
+        <v>0.04613652721878428</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4624,13 +4624,13 @@
         <v>131</v>
       </c>
       <c r="C41">
-        <v>685.4842306488298</v>
+        <v>425.6111639870298</v>
       </c>
       <c r="D41">
-        <v>0.1999999999999999</v>
+        <v>106.4027909967574</v>
       </c>
       <c r="E41">
-        <v>0.06879608898522981</v>
+        <v>0.04271489000271275</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4641,13 +4641,13 @@
         <v>132</v>
       </c>
       <c r="C42">
-        <v>264.3271084418927</v>
+        <v>164.1183899895041</v>
       </c>
       <c r="D42">
-        <v>0.1999999999999999</v>
+        <v>41.02959749737599</v>
       </c>
       <c r="E42">
-        <v>0.06899689596499417</v>
+        <v>0.0428395693003143</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4658,13 +4658,13 @@
         <v>133</v>
       </c>
       <c r="C43">
-        <v>1432.063457129734</v>
+        <v>889.1556765869951</v>
       </c>
       <c r="D43">
-        <v>0.1999999999999999</v>
+        <v>222.2889191467488</v>
       </c>
       <c r="E43">
-        <v>0.07457110274576828</v>
+        <v>0.0463005455419181</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4675,13 +4675,13 @@
         <v>134</v>
       </c>
       <c r="C44">
-        <v>850.3490377293904</v>
+        <v>527.9742808973025</v>
       </c>
       <c r="D44">
-        <v>0.2</v>
+        <v>131.9935702243256</v>
       </c>
       <c r="E44">
-        <v>0.07069745907294565</v>
+        <v>0.04389543406196396</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4692,13 +4692,13 @@
         <v>135</v>
       </c>
       <c r="C45">
-        <v>1676.889929780347</v>
+        <v>1041.166292354242</v>
       </c>
       <c r="D45">
-        <v>0.1999999999999999</v>
+        <v>260.2915730885604</v>
       </c>
       <c r="E45">
-        <v>0.07524072014090488</v>
+        <v>0.04671630512649716</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4709,13 +4709,13 @@
         <v>136</v>
       </c>
       <c r="C46">
-        <v>195.4041791197583</v>
+        <v>121.3247459308747</v>
       </c>
       <c r="D46">
-        <v>0.1999999999999999</v>
+        <v>30.33118648271866</v>
       </c>
       <c r="E46">
-        <v>0.06427769049992048</v>
+        <v>0.03990945589831404</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4726,13 +4726,13 @@
         <v>137</v>
       </c>
       <c r="C47">
-        <v>453.3817076281325</v>
+        <v>281.500737269172</v>
       </c>
       <c r="D47">
-        <v>0.2</v>
+        <v>70.37518431729296</v>
       </c>
       <c r="E47">
-        <v>0.0601301999506807</v>
+        <v>0.03733431528768859</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4743,13 +4743,13 @@
         <v>138</v>
       </c>
       <c r="C48">
-        <v>203.0848640558429</v>
+        <v>126.0936160371505</v>
       </c>
       <c r="D48">
-        <v>0.2</v>
+        <v>31.52340400928762</v>
       </c>
       <c r="E48">
-        <v>0.07334231276845177</v>
+        <v>0.0455376005912425</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4760,13 +4760,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>779.6971980655708</v>
+        <v>484.1071715275057</v>
       </c>
       <c r="D49">
-        <v>0.2</v>
+        <v>121.0267928818764</v>
       </c>
       <c r="E49">
-        <v>0.1014306228783102</v>
+        <v>0.06297738669539556</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4777,13 +4777,13 @@
         <v>140</v>
       </c>
       <c r="C50">
-        <v>688.067287406844</v>
+        <v>427.2149613382576</v>
       </c>
       <c r="D50">
-        <v>0.1999999999999999</v>
+        <v>106.8037403345644</v>
       </c>
       <c r="E50">
-        <v>0.07246627566159494</v>
+        <v>0.044993676812876</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4794,13 +4794,13 @@
         <v>141</v>
       </c>
       <c r="C51">
-        <v>1381.460145016279</v>
+        <v>857.7365226411478</v>
       </c>
       <c r="D51">
-        <v>0.2</v>
+        <v>214.4341306602869</v>
       </c>
       <c r="E51">
-        <v>0.07194730196428724</v>
+        <v>0.04467145058284192</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4811,13 +4811,13 @@
         <v>142</v>
       </c>
       <c r="C52">
-        <v>915.2630094749217</v>
+        <v>568.2787982564926</v>
       </c>
       <c r="D52">
-        <v>0.2</v>
+        <v>142.0696995641231</v>
       </c>
       <c r="E52">
-        <v>0.07137110179935446</v>
+        <v>0.04431369293952687</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>143</v>
       </c>
       <c r="C53">
-        <v>629.2416244779406</v>
+        <v>390.6906216787132</v>
       </c>
       <c r="D53">
-        <v>0.1999999999999999</v>
+        <v>97.67265541967828</v>
       </c>
       <c r="E53">
-        <v>0.07987327043385892</v>
+        <v>0.04959261508996106</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4845,13 +4845,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>376.8193991580769</v>
+        <v>233.9638695069026</v>
       </c>
       <c r="D54">
-        <v>0.2</v>
+        <v>58.49096737672562</v>
       </c>
       <c r="E54">
-        <v>0.0618954335016552</v>
+        <v>0.0384303333618434</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4862,13 +4862,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>1789.037418707473</v>
+        <v>1110.797687456238</v>
       </c>
       <c r="D55">
-        <v>0.1999999999999999</v>
+        <v>277.6994218640596</v>
       </c>
       <c r="E55">
-        <v>0.07286431062222429</v>
+        <v>0.04524081323896217</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4879,13 +4879,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>679.5697666276465</v>
+        <v>421.9389250005362</v>
       </c>
       <c r="D56">
-        <v>0.2</v>
+        <v>105.484731250134</v>
       </c>
       <c r="E56">
-        <v>0.07800387587553334</v>
+        <v>0.04843192435726999</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>1035.346591963631</v>
+        <v>642.83764444669</v>
       </c>
       <c r="D57">
-        <v>0.1999999999999999</v>
+        <v>160.7094111116725</v>
       </c>
       <c r="E57">
-        <v>0.07075422619856697</v>
+        <v>0.04393068027381193</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4913,13 +4913,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>346.2302290121736</v>
+        <v>214.9713212773506</v>
       </c>
       <c r="D58">
-        <v>0.2</v>
+        <v>53.74283031933766</v>
       </c>
       <c r="E58">
-        <v>0.07641364577624665</v>
+        <v>0.04744456439579577</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4930,13 +4930,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>1572.225170061045</v>
+        <v>976.1808583780436</v>
       </c>
       <c r="D59">
-        <v>0.2</v>
+        <v>244.0452145945109</v>
       </c>
       <c r="E59">
-        <v>0.1198068406660859</v>
+        <v>0.07438701961274431</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4947,13 +4947,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>661.1572979435136</v>
+        <v>410.5067842186672</v>
       </c>
       <c r="D60">
-        <v>0.2</v>
+        <v>102.6266960546668</v>
       </c>
       <c r="E60">
-        <v>0.07802186664426641</v>
+        <v>0.04844309466824018</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4964,13 +4964,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>1052.500020033069</v>
+        <v>653.4880579216891</v>
       </c>
       <c r="D61">
-        <v>0.2</v>
+        <v>163.3720144804222</v>
       </c>
       <c r="E61">
-        <v>0.09008045361460711</v>
+        <v>0.05593016586115107</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4981,13 +4981,13 @@
         <v>152</v>
       </c>
       <c r="C62">
-        <v>541.6858862436403</v>
+        <v>336.3280295175893</v>
       </c>
       <c r="D62">
-        <v>0.2</v>
+        <v>84.08200737939728</v>
       </c>
       <c r="E62">
-        <v>0.07722923955569437</v>
+        <v>0.04795095944077406</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4998,13 +4998,13 @@
         <v>153</v>
       </c>
       <c r="C63">
-        <v>560.0751689233443</v>
+        <v>347.7457743120788</v>
       </c>
       <c r="D63">
-        <v>0.2</v>
+        <v>86.93644357801969</v>
       </c>
       <c r="E63">
-        <v>0.1037945086959497</v>
+        <v>0.06444510272647866</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5015,13 +5015,13 @@
         <v>154</v>
       </c>
       <c r="C64">
-        <v>351.5339185328179</v>
+        <v>218.2643357179172</v>
       </c>
       <c r="D64">
-        <v>0.2</v>
+        <v>54.56608392947928</v>
       </c>
       <c r="E64">
-        <v>0.1063320987697574</v>
+        <v>0.06602067021110623</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5032,13 +5032,13 @@
         <v>155</v>
       </c>
       <c r="C65">
-        <v>1948.142740649499</v>
+        <v>1209.584790412904</v>
       </c>
       <c r="D65">
-        <v>0.2</v>
+        <v>302.396197603226</v>
       </c>
       <c r="E65">
-        <v>0.08552362880940774</v>
+        <v>0.05310087319078555</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5049,13 +5049,13 @@
         <v>156</v>
       </c>
       <c r="C66">
-        <v>462.1189708339766</v>
+        <v>286.9256275829587</v>
       </c>
       <c r="D66">
-        <v>0.2</v>
+        <v>71.73140689573967</v>
       </c>
       <c r="E66">
-        <v>0.08743972958069567</v>
+        <v>0.05429056340264118</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5066,13 +5066,13 @@
         <v>157</v>
       </c>
       <c r="C67">
-        <v>1013.544591037859</v>
+        <v>629.3009727387489</v>
       </c>
       <c r="D67">
-        <v>0.2</v>
+        <v>157.3252431846871</v>
       </c>
       <c r="E67">
-        <v>0.06116744665285814</v>
+        <v>0.03797833269394985</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5083,13 +5083,13 @@
         <v>158</v>
       </c>
       <c r="C68">
-        <v>1720.170628263314</v>
+        <v>1068.038899535988</v>
       </c>
       <c r="D68">
-        <v>0.2</v>
+        <v>267.009724883997</v>
       </c>
       <c r="E68">
-        <v>0.06607654239862153</v>
+        <v>0.04102634731056689</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5100,13 +5100,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>1074.055937160882</v>
+        <v>666.8719383515751</v>
       </c>
       <c r="D69">
-        <v>0.2</v>
+        <v>166.7179845878937</v>
       </c>
       <c r="E69">
-        <v>0.09797098760931154</v>
+        <v>0.06082932941271323</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5117,13 +5117,13 @@
         <v>160</v>
       </c>
       <c r="C70">
-        <v>3025.718866046908</v>
+        <v>1878.642382855141</v>
       </c>
       <c r="D70">
-        <v>0.2</v>
+        <v>469.6605957137851</v>
       </c>
       <c r="E70">
-        <v>0.07226805355037041</v>
+        <v>0.04487060243754516</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5134,13 +5134,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>358.6053987754215</v>
+        <v>222.6549559577395</v>
       </c>
       <c r="D71">
-        <v>0.2</v>
+        <v>55.66373898943488</v>
       </c>
       <c r="E71">
-        <v>0.06094585295299482</v>
+        <v>0.0378407471036267</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5151,13 +5151,13 @@
         <v>162</v>
       </c>
       <c r="C72">
-        <v>74.18477038267881</v>
+        <v>46.06067515630071</v>
       </c>
       <c r="D72">
-        <v>0.1999999999999999</v>
+        <v>11.51516878907518</v>
       </c>
       <c r="E72">
-        <v>0.0747077244538558</v>
+        <v>0.04638537276566033</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5168,13 +5168,13 @@
         <v>163</v>
       </c>
       <c r="C73">
-        <v>61.2235912238813</v>
+        <v>38.01319236709229</v>
       </c>
       <c r="D73">
-        <v>0.1999999999999999</v>
+        <v>9.503298091773068</v>
       </c>
       <c r="E73">
-        <v>0.06742686258136707</v>
+        <v>0.04186474930296508</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5185,13 +5185,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>89.79208072567721</v>
+        <v>55.75111765634614</v>
       </c>
       <c r="D74">
-        <v>0.2</v>
+        <v>13.93777941408653</v>
       </c>
       <c r="E74">
-        <v>0.07539217525245777</v>
+        <v>0.04681034228072724</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5202,13 +5202,13 @@
         <v>165</v>
       </c>
       <c r="C75">
-        <v>27.11890397674965</v>
+        <v>16.8378903139347</v>
       </c>
       <c r="D75">
-        <v>0.2</v>
+        <v>4.209472578483673</v>
       </c>
       <c r="E75">
-        <v>0.07470772445385579</v>
+        <v>0.04638537276566034</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5219,13 +5219,13 @@
         <v>166</v>
       </c>
       <c r="C76">
-        <v>4.258340293869781</v>
+        <v>2.64396624764264</v>
       </c>
       <c r="D76">
-        <v>0.1999999999999999</v>
+        <v>0.6609915619106594</v>
       </c>
       <c r="E76">
-        <v>0.0747077244538558</v>
+        <v>0.04638537276566034</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5236,13 +5236,13 @@
         <v>167</v>
       </c>
       <c r="C77">
-        <v>269.9546291895984</v>
+        <v>167.6124684069246</v>
       </c>
       <c r="D77">
-        <v>0.2</v>
+        <v>41.90311710173114</v>
       </c>
       <c r="E77">
-        <v>0.1080683063208961</v>
+        <v>0.06709866629580648</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5253,13 +5253,13 @@
         <v>168</v>
       </c>
       <c r="C78">
-        <v>54.01583491628524</v>
+        <v>33.53795951030263</v>
       </c>
       <c r="D78">
-        <v>0.2</v>
+        <v>8.38448987757566</v>
       </c>
       <c r="E78">
-        <v>0.07359105574425781</v>
+        <v>0.04569204292956762</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5270,13 +5270,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>905.2903919240052</v>
+        <v>562.0868872334985</v>
       </c>
       <c r="D79">
-        <v>0.2</v>
+        <v>140.5217218083747</v>
       </c>
       <c r="E79">
-        <v>0.06768526294758917</v>
+        <v>0.04202518783054195</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5287,13 +5287,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>92.01039665205138</v>
+        <v>57.12845061500723</v>
       </c>
       <c r="D80">
-        <v>0.1999999999999999</v>
+        <v>14.2821126537518</v>
       </c>
       <c r="E80">
-        <v>0.07857420721780647</v>
+        <v>0.04878603809992078</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5304,13 +5304,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>86.23399867150123</v>
+        <v>53.54193562570217</v>
       </c>
       <c r="D81">
-        <v>0.1999999999999999</v>
+        <v>13.38548390642553</v>
       </c>
       <c r="E81">
-        <v>0.06731771949375584</v>
+        <v>0.04179698331436547</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>489.2383577987138</v>
+        <v>303.763817779911</v>
       </c>
       <c r="D82">
-        <v>0.2</v>
+        <v>75.94095444497771</v>
       </c>
       <c r="E82">
-        <v>0.07196798437756896</v>
+        <v>0.0446842921123729</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5338,13 +5338,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>199.1903911061166</v>
+        <v>123.6755718413268</v>
       </c>
       <c r="D83">
-        <v>0.2</v>
+        <v>30.9188929603317</v>
       </c>
       <c r="E83">
-        <v>0.07670018910516618</v>
+        <v>0.04762247664279046</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5355,13 +5355,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>177.1545174462061</v>
+        <v>109.9936905980655</v>
       </c>
       <c r="D84">
-        <v>0.2</v>
+        <v>27.49842264951639</v>
       </c>
       <c r="E84">
-        <v>0.09348523348084757</v>
+        <v>0.05804416390399237</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5372,13 +5372,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>57.68321589164166</v>
+        <v>35.81500428524651</v>
       </c>
       <c r="D85">
-        <v>0.2</v>
+        <v>8.953751071311622</v>
       </c>
       <c r="E85">
-        <v>0.07560054507423547</v>
+        <v>0.0469397172807949</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5389,13 +5389,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>136.2316069471001</v>
+        <v>84.58501335573766</v>
       </c>
       <c r="D86">
-        <v>0.2</v>
+        <v>21.1462533389344</v>
       </c>
       <c r="E86">
-        <v>0.091553499292406</v>
+        <v>0.05684476704014627</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5406,13 +5406,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>321.6774056736563</v>
+        <v>199.7266879903338</v>
       </c>
       <c r="D87">
-        <v>0.2</v>
+        <v>49.93167199758344</v>
       </c>
       <c r="E87">
-        <v>0.06594452760837562</v>
+        <v>0.04094438048182325</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5423,13 +5423,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>107.8313444109048</v>
+        <v>66.9515387182158</v>
       </c>
       <c r="D88">
-        <v>0.1999999999999999</v>
+        <v>16.73788467955394</v>
       </c>
       <c r="E88">
-        <v>0.06786113556381675</v>
+        <v>0.04213438559988408</v>
       </c>
     </row>
   </sheetData>
@@ -5470,13 +5470,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>310.4172625227204</v>
+        <v>192.7353635821935</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>82.60087010665438</v>
       </c>
       <c r="E2">
-        <v>0.1000700394979756</v>
+        <v>0.06213261237336994</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5487,13 +5487,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>488.0122684569848</v>
+        <v>303.0025496302536</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>129.8582355558229</v>
       </c>
       <c r="E3">
-        <v>0.1233600274158202</v>
+        <v>0.07659316219167178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5504,13 +5504,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>523.3628148150818</v>
+        <v>324.9513947098931</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>139.2648834470971</v>
       </c>
       <c r="E4">
-        <v>0.07807889225944828</v>
+        <v>0.04847850137399569</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5521,13 +5521,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>378.1763238617006</v>
+        <v>234.8063721885549</v>
       </c>
       <c r="D5">
-        <v>0.3000000000000001</v>
+        <v>100.6313023665236</v>
       </c>
       <c r="E5">
-        <v>0.07963283298835556</v>
+        <v>0.04944332958276582</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5538,13 +5538,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>338.2535928873897</v>
+        <v>210.0186976662183</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>90.00801328552214</v>
       </c>
       <c r="E6">
-        <v>0.08957987099771975</v>
+        <v>0.05561935849211289</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5555,13 +5555,13 @@
         <v>97</v>
       </c>
       <c r="C7">
-        <v>710.8225798603158</v>
+        <v>441.3435234188476</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>189.1472243223633</v>
       </c>
       <c r="E7">
-        <v>0.1247713849149229</v>
+        <v>0.07746946172000133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5572,13 +5572,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>1956.558725591879</v>
+        <v>1214.810201862608</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>520.6329436554033</v>
       </c>
       <c r="E8">
-        <v>0.08243348327751754</v>
+        <v>0.05118222885454425</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5589,13 +5589,13 @@
         <v>99</v>
       </c>
       <c r="C9">
-        <v>1339.957434186123</v>
+        <v>831.9678524438476</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>356.5576510473633</v>
       </c>
       <c r="E9">
-        <v>0.1908499407756906</v>
+        <v>0.1184970591716063</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5606,13 +5606,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>1315.547167366489</v>
+        <v>816.8117312526939</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>350.0621705368688</v>
       </c>
       <c r="E10">
-        <v>0.1104017428135691</v>
+        <v>0.06854747660730899</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5623,13 +5623,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>548.9869799416126</v>
+        <v>340.8612147437922</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>146.0833777473396</v>
       </c>
       <c r="E11">
-        <v>0.08316724434807038</v>
+        <v>0.05163781468622818</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5640,13 +5640,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>384.3112338717561</v>
+        <v>238.6154841616545</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>102.2637789264234</v>
       </c>
       <c r="E12">
-        <v>0.0845569271445008</v>
+        <v>0.05250065658122211</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5657,13 +5657,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>1239.320500788444</v>
+        <v>769.4832606058561</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <v>329.7785402596527</v>
       </c>
       <c r="E13">
-        <v>0.08318145518413611</v>
+        <v>0.05164663807006216</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5674,13 +5674,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>1986.028981022385</v>
+        <v>1233.108025730709</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>528.4748681703038</v>
       </c>
       <c r="E14">
-        <v>0.088303276022515</v>
+        <v>0.05482673183632157</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5691,13 +5691,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>906.1447663272961</v>
+        <v>562.6173608286696</v>
       </c>
       <c r="D15">
-        <v>0.3</v>
+        <v>241.1217260694299</v>
       </c>
       <c r="E15">
-        <v>0.07876095317925216</v>
+        <v>0.04890198703421726</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5708,13 +5708,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>364.323353382228</v>
+        <v>226.2051839673969</v>
       </c>
       <c r="D16">
-        <v>0.3000000000000001</v>
+        <v>96.94507884317011</v>
       </c>
       <c r="E16">
-        <v>0.06875322766224344</v>
+        <v>0.04268827778210924</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5725,13 +5725,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>284.2268971924078</v>
+        <v>176.4739947934046</v>
       </c>
       <c r="D17">
-        <v>0.3000000000000001</v>
+        <v>75.6317120543163</v>
       </c>
       <c r="E17">
-        <v>0.05655131261289451</v>
+        <v>0.03511221543840123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5742,13 +5742,13 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>1511.669872535263</v>
+        <v>938.5826037236161</v>
       </c>
       <c r="D18">
-        <v>0.3000000000000001</v>
+        <v>402.2496873101213</v>
       </c>
       <c r="E18">
-        <v>0.08720836924744797</v>
+        <v>0.05414691379506266</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5759,13 +5759,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>687.4972837379457</v>
+        <v>426.8610510451396</v>
       </c>
       <c r="D19">
-        <v>0.3</v>
+        <v>182.940450447917</v>
       </c>
       <c r="E19">
-        <v>0.06355711229896882</v>
+        <v>0.03946205519507624</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5776,13 +5776,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>702.1709596353838</v>
+        <v>435.9718080829284</v>
       </c>
       <c r="D20">
-        <v>0.3</v>
+        <v>186.8450606069694</v>
       </c>
       <c r="E20">
-        <v>0.06919985805020044</v>
+        <v>0.04296558668403749</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5793,13 +5793,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>577.739271503595</v>
+        <v>358.7132611247962</v>
       </c>
       <c r="D21">
-        <v>0.3000000000000001</v>
+        <v>153.7342547677699</v>
       </c>
       <c r="E21">
-        <v>0.0737570881531463</v>
+        <v>0.04579513100022932</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5810,13 +5810,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>516.2335130794531</v>
+        <v>320.5248736107226</v>
       </c>
       <c r="D22">
-        <v>0.3</v>
+        <v>137.3678029760241</v>
       </c>
       <c r="E22">
-        <v>0.06065485995528765</v>
+        <v>0.03766007209619582</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5827,13 +5827,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>698.2708221968434</v>
+        <v>433.5502468555382</v>
       </c>
       <c r="D23">
-        <v>0.3</v>
+        <v>185.8072486523735</v>
       </c>
       <c r="E23">
-        <v>0.07194959528045784</v>
+        <v>0.04467287448279631</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5844,13 +5844,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>832.2555937386651</v>
+        <v>516.7402197575771</v>
       </c>
       <c r="D24">
-        <v>0.3000000000000001</v>
+        <v>221.4600941818187</v>
       </c>
       <c r="E24">
-        <v>0.1234617406525241</v>
+        <v>0.07665631505081992</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5861,13 +5861,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>1363.544382530795</v>
+        <v>846.6127823941333</v>
       </c>
       <c r="D25">
-        <v>0.3</v>
+        <v>362.8340495974858</v>
       </c>
       <c r="E25">
-        <v>0.09339345085827365</v>
+        <v>0.0579871768763105</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5878,13 +5878,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>801.5849061567114</v>
+        <v>497.6970580648826</v>
       </c>
       <c r="D26">
-        <v>0.3</v>
+        <v>213.298739170664</v>
       </c>
       <c r="E26">
-        <v>0.1260551826005208</v>
+        <v>0.07826656047568527</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5895,13 +5895,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>267.9330841624316</v>
+        <v>166.3573087787442</v>
       </c>
       <c r="D27">
-        <v>0.3</v>
+        <v>71.29598947660469</v>
       </c>
       <c r="E27">
-        <v>0.0976432522457841</v>
+        <v>0.06062584139167063</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5912,13 +5912,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>1661.701906189832</v>
+        <v>1031.73618133199</v>
       </c>
       <c r="D28">
-        <v>0.3</v>
+        <v>442.1726491422817</v>
       </c>
       <c r="E28">
-        <v>0.06401255465117425</v>
+        <v>0.03974483536854232</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5929,13 +5929,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>300.8589598045683</v>
+        <v>186.8006970155207</v>
       </c>
       <c r="D29">
-        <v>0.3</v>
+        <v>80.0574415780803</v>
       </c>
       <c r="E29">
-        <v>0.06208397849867278</v>
+        <v>0.0385473993015932</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5946,13 +5946,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>515.9184086059431</v>
+        <v>320.3292279988299</v>
       </c>
       <c r="D30">
-        <v>0.3000000000000001</v>
+        <v>137.2839548566415</v>
       </c>
       <c r="E30">
-        <v>0.05533823968743357</v>
+        <v>0.03435902906777109</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5963,13 +5963,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>180.9787367995899</v>
+        <v>112.3681149503147</v>
       </c>
       <c r="D31">
-        <v>0.3</v>
+        <v>48.1577635501349</v>
       </c>
       <c r="E31">
-        <v>0.05092254833978332</v>
+        <v>0.03161736492693155</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5980,13 +5980,13 @@
         <v>122</v>
       </c>
       <c r="C32">
-        <v>335.1555509967794</v>
+        <v>208.0951505499044</v>
       </c>
       <c r="D32">
-        <v>0.3</v>
+        <v>89.18363594995904</v>
       </c>
       <c r="E32">
-        <v>0.06697752817681442</v>
+        <v>0.04158576150078026</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5997,13 +5997,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>1711.994942758712</v>
+        <v>1062.96268790569</v>
       </c>
       <c r="D33">
-        <v>0.3000000000000001</v>
+        <v>455.5554376738671</v>
       </c>
       <c r="E33">
-        <v>0.07045246678019393</v>
+        <v>0.04374332048994609</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6014,13 +6014,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>652.2276101177395</v>
+        <v>404.9624191411932</v>
       </c>
       <c r="D34">
-        <v>0.3</v>
+        <v>173.5553224890829</v>
       </c>
       <c r="E34">
-        <v>0.06395642382013526</v>
+        <v>0.03970998422643589</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6031,13 +6031,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>701.4730829733805</v>
+        <v>435.53850256669</v>
       </c>
       <c r="D35">
-        <v>0.3000000000000001</v>
+        <v>186.6593582428671</v>
       </c>
       <c r="E35">
-        <v>0.06929498004281147</v>
+        <v>0.04302464709737133</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6048,13 +6048,13 @@
         <v>126</v>
       </c>
       <c r="C36">
-        <v>670.954256706723</v>
+        <v>416.5896302365774</v>
       </c>
       <c r="D36">
-        <v>0.3</v>
+        <v>178.5384129585332</v>
       </c>
       <c r="E36">
-        <v>0.07023492690324745</v>
+        <v>0.04360825188281978</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6065,13 +6065,13 @@
         <v>127</v>
       </c>
       <c r="C37">
-        <v>233.9246592477604</v>
+        <v>145.2417751659603</v>
       </c>
       <c r="D37">
-        <v>0.3</v>
+        <v>62.24647507112587</v>
       </c>
       <c r="E37">
-        <v>0.06454874703304647</v>
+        <v>0.04007775252923851</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6082,13 +6082,13 @@
         <v>128</v>
       </c>
       <c r="C38">
-        <v>995.5026362111486</v>
+        <v>618.0988807706674</v>
       </c>
       <c r="D38">
-        <v>0.3</v>
+        <v>264.8995203302861</v>
       </c>
       <c r="E38">
-        <v>0.06506553177850644</v>
+        <v>0.04039861965821356</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6099,13 +6099,13 @@
         <v>129</v>
       </c>
       <c r="C39">
-        <v>1055.575694333575</v>
+        <v>655.3977171969203</v>
       </c>
       <c r="D39">
-        <v>0.3</v>
+        <v>280.8847359415373</v>
       </c>
       <c r="E39">
-        <v>0.0626119991893692</v>
+        <v>0.03887524273070291</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6116,13 +6116,13 @@
         <v>130</v>
       </c>
       <c r="C40">
-        <v>389.2661768138209</v>
+        <v>241.6919649015038</v>
       </c>
       <c r="D40">
-        <v>0.3</v>
+        <v>103.5822706720731</v>
       </c>
       <c r="E40">
-        <v>0.06501856970332737</v>
+        <v>0.04036946131643624</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6133,13 +6133,13 @@
         <v>131</v>
       </c>
       <c r="C41">
-        <v>599.7987018177259</v>
+        <v>372.409768488651</v>
       </c>
       <c r="D41">
-        <v>0.3000000000000001</v>
+        <v>159.6041864951362</v>
       </c>
       <c r="E41">
-        <v>0.06019657786207607</v>
+        <v>0.03737552875237365</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6150,13 +6150,13 @@
         <v>132</v>
       </c>
       <c r="C42">
-        <v>231.2862198866561</v>
+        <v>143.603591240816</v>
       </c>
       <c r="D42">
-        <v>0.3</v>
+        <v>61.54439624606403</v>
       </c>
       <c r="E42">
-        <v>0.06037228396936989</v>
+        <v>0.037484623137775</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6167,13 +6167,13 @@
         <v>133</v>
       </c>
       <c r="C43">
-        <v>1253.055524988517</v>
+        <v>778.0112170136207</v>
       </c>
       <c r="D43">
-        <v>0.3</v>
+        <v>333.4333787201232</v>
       </c>
       <c r="E43">
-        <v>0.06524971490254723</v>
+        <v>0.04051297734917833</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6184,13 +6184,13 @@
         <v>134</v>
       </c>
       <c r="C44">
-        <v>744.0554080132165</v>
+        <v>461.9774957851396</v>
       </c>
       <c r="D44">
-        <v>0.3</v>
+        <v>197.9903553364884</v>
       </c>
       <c r="E44">
-        <v>0.06186027668882745</v>
+        <v>0.03840850480421846</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6201,13 +6201,13 @@
         <v>135</v>
       </c>
       <c r="C45">
-        <v>1467.278688557803</v>
+        <v>911.0205058099617</v>
       </c>
       <c r="D45">
-        <v>0.3</v>
+        <v>390.4373596328409</v>
       </c>
       <c r="E45">
-        <v>0.06583563012329176</v>
+        <v>0.04087676698568501</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6218,13 +6218,13 @@
         <v>136</v>
       </c>
       <c r="C46">
-        <v>170.9786567297884</v>
+        <v>106.1591526895153</v>
       </c>
       <c r="D46">
-        <v>0.3</v>
+        <v>45.49677972407801</v>
       </c>
       <c r="E46">
-        <v>0.05624297918743041</v>
+        <v>0.03492077391102479</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6235,13 +6235,13 @@
         <v>137</v>
       </c>
       <c r="C47">
-        <v>396.708994174616</v>
+        <v>246.3131451105254</v>
       </c>
       <c r="D47">
-        <v>0.3</v>
+        <v>105.5627764759395</v>
       </c>
       <c r="E47">
-        <v>0.05261392495684562</v>
+        <v>0.03266752587672751</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6252,13 +6252,13 @@
         <v>138</v>
       </c>
       <c r="C48">
-        <v>177.6992560488625</v>
+        <v>110.3319140325067</v>
       </c>
       <c r="D48">
-        <v>0.3000000000000001</v>
+        <v>47.28510601393143</v>
       </c>
       <c r="E48">
-        <v>0.06417452367239529</v>
+        <v>0.03984540051733718</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6269,13 +6269,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>682.2350483073744</v>
+        <v>423.5937750865675</v>
       </c>
       <c r="D49">
-        <v>0.3</v>
+        <v>181.5401893228146</v>
       </c>
       <c r="E49">
-        <v>0.08875179501852146</v>
+        <v>0.05510521335847111</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6286,13 +6286,13 @@
         <v>140</v>
       </c>
       <c r="C50">
-        <v>602.0588764809884</v>
+        <v>373.8130911709754</v>
       </c>
       <c r="D50">
-        <v>0.3000000000000001</v>
+        <v>160.2056105018466</v>
       </c>
       <c r="E50">
-        <v>0.06340799120389556</v>
+        <v>0.0393694672112665</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6303,13 +6303,13 @@
         <v>141</v>
       </c>
       <c r="C51">
-        <v>1208.777626889244</v>
+        <v>750.5194573110042</v>
       </c>
       <c r="D51">
-        <v>0.3000000000000001</v>
+        <v>321.6511959904304</v>
       </c>
       <c r="E51">
-        <v>0.06295388921875132</v>
+        <v>0.03908751925998668</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6320,13 +6320,13 @@
         <v>142</v>
       </c>
       <c r="C52">
-        <v>800.8551332905564</v>
+        <v>497.2439484744309</v>
       </c>
       <c r="D52">
-        <v>0.3</v>
+        <v>213.1045493461847</v>
       </c>
       <c r="E52">
-        <v>0.06244971407443516</v>
+        <v>0.038774481322086</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6337,13 +6337,13 @@
         <v>143</v>
       </c>
       <c r="C53">
-        <v>550.5864214181979</v>
+        <v>341.8542939688741</v>
       </c>
       <c r="D53">
-        <v>0.3</v>
+        <v>146.5089831295174</v>
       </c>
       <c r="E53">
-        <v>0.06988911162962655</v>
+        <v>0.04339353820371593</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6354,13 +6354,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>329.7169742633172</v>
+        <v>204.7183858185397</v>
       </c>
       <c r="D54">
-        <v>0.3</v>
+        <v>87.73645106508849</v>
       </c>
       <c r="E54">
-        <v>0.0541585043139483</v>
+        <v>0.03362654169161296</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6371,13 +6371,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>1565.407741369039</v>
+        <v>971.9479765242083</v>
       </c>
       <c r="D55">
-        <v>0.3000000000000001</v>
+        <v>416.5491327960895</v>
       </c>
       <c r="E55">
-        <v>0.06375627179444625</v>
+        <v>0.0395857115840919</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6388,13 +6388,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>594.6235457991907</v>
+        <v>369.1965593754691</v>
       </c>
       <c r="D56">
-        <v>0.3</v>
+        <v>158.2270968752011</v>
       </c>
       <c r="E56">
-        <v>0.06825339139109167</v>
+        <v>0.04237793381261124</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6405,13 +6405,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>905.9282679681766</v>
+        <v>562.4829388908537</v>
       </c>
       <c r="D57">
-        <v>0.3</v>
+        <v>241.0641166675088</v>
       </c>
       <c r="E57">
-        <v>0.06190994792374609</v>
+        <v>0.03843934523958543</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6422,13 +6422,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>302.9514503856519</v>
+        <v>188.0999061176818</v>
       </c>
       <c r="D58">
-        <v>0.3</v>
+        <v>80.61424547900648</v>
       </c>
       <c r="E58">
-        <v>0.06686194005421582</v>
+        <v>0.0415139938463213</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6439,13 +6439,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>1375.697023803415</v>
+        <v>854.1582510807881</v>
       </c>
       <c r="D59">
-        <v>0.3</v>
+        <v>366.0678218917664</v>
       </c>
       <c r="E59">
-        <v>0.1048309855828252</v>
+        <v>0.06508864216115127</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6456,13 +6456,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>578.5126357005744</v>
+        <v>359.1934361913338</v>
       </c>
       <c r="D60">
-        <v>0.3</v>
+        <v>153.9400440820002</v>
       </c>
       <c r="E60">
-        <v>0.0682691333137331</v>
+        <v>0.04238770783471015</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6473,13 +6473,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>920.9375175289357</v>
+        <v>571.8020506814779</v>
       </c>
       <c r="D61">
-        <v>0.3</v>
+        <v>245.0580217206334</v>
       </c>
       <c r="E61">
-        <v>0.07882039691278121</v>
+        <v>0.04893889512850718</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6490,13 +6490,13 @@
         <v>152</v>
       </c>
       <c r="C62">
-        <v>473.9751504631852</v>
+        <v>294.2870258278906</v>
       </c>
       <c r="D62">
-        <v>0.3</v>
+        <v>126.123011069096</v>
       </c>
       <c r="E62">
-        <v>0.06757558461123257</v>
+        <v>0.0419570895106773</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6507,13 +6507,13 @@
         <v>153</v>
       </c>
       <c r="C63">
-        <v>490.0657728079262</v>
+        <v>304.2775525230689</v>
       </c>
       <c r="D63">
-        <v>0.3000000000000001</v>
+        <v>130.4046653670296</v>
       </c>
       <c r="E63">
-        <v>0.09082019510895593</v>
+        <v>0.05638946488566882</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -6524,13 +6524,13 @@
         <v>154</v>
       </c>
       <c r="C64">
-        <v>307.5921787162156</v>
+        <v>190.9812937531775</v>
       </c>
       <c r="D64">
-        <v>0.3</v>
+        <v>81.84912589421896</v>
       </c>
       <c r="E64">
-        <v>0.0930405864235377</v>
+        <v>0.05776808643471794</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6541,13 +6541,13 @@
         <v>155</v>
       </c>
       <c r="C65">
-        <v>1704.624898068311</v>
+        <v>1058.386691611291</v>
       </c>
       <c r="D65">
-        <v>0.3</v>
+        <v>453.594296404839</v>
       </c>
       <c r="E65">
-        <v>0.07483317520823177</v>
+        <v>0.04646326404193736</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6558,13 +6558,13 @@
         <v>156</v>
       </c>
       <c r="C66">
-        <v>404.3540994797295</v>
+        <v>251.0599241350888</v>
       </c>
       <c r="D66">
-        <v>0.3</v>
+        <v>107.5971103436095</v>
       </c>
       <c r="E66">
-        <v>0.07650976338310871</v>
+        <v>0.04750424297731103</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6575,13 +6575,13 @@
         <v>157</v>
       </c>
       <c r="C67">
-        <v>886.8515171581267</v>
+        <v>550.6383511464052</v>
       </c>
       <c r="D67">
-        <v>0.3</v>
+        <v>235.9878647770308</v>
       </c>
       <c r="E67">
-        <v>0.05352151582125086</v>
+        <v>0.03323104110720611</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6592,13 +6592,13 @@
         <v>158</v>
       </c>
       <c r="C68">
-        <v>1505.1492997304</v>
+        <v>934.5340370939894</v>
       </c>
       <c r="D68">
-        <v>0.3</v>
+        <v>400.5145873259955</v>
       </c>
       <c r="E68">
-        <v>0.05781697459879383</v>
+        <v>0.03589805389674603</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6609,13 +6609,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>939.798945015772</v>
+        <v>583.5129460576281</v>
       </c>
       <c r="D69">
-        <v>0.3000000000000001</v>
+        <v>250.0769768818407</v>
       </c>
       <c r="E69">
-        <v>0.08572461415814758</v>
+        <v>0.05322566323612406</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6626,13 +6626,13 @@
         <v>160</v>
       </c>
       <c r="C70">
-        <v>2647.504007791044</v>
+        <v>1643.812084998248</v>
       </c>
       <c r="D70">
-        <v>0.3</v>
+        <v>704.4908935706778</v>
       </c>
       <c r="E70">
-        <v>0.06323454685657411</v>
+        <v>0.03926177713285201</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6643,13 +6643,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>313.7797239284938</v>
+        <v>194.8230864630221</v>
       </c>
       <c r="D71">
-        <v>0.3</v>
+        <v>83.49560848415231</v>
       </c>
       <c r="E71">
-        <v>0.05332762133387046</v>
+        <v>0.03311065371567336</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6660,13 +6660,13 @@
         <v>162</v>
       </c>
       <c r="C72">
-        <v>64.91167408484395</v>
+        <v>40.30309076176312</v>
       </c>
       <c r="D72">
-        <v>0.3</v>
+        <v>17.27275318361277</v>
       </c>
       <c r="E72">
-        <v>0.06536925889712382</v>
+        <v>0.04058720116995278</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6677,13 +6677,13 @@
         <v>163</v>
       </c>
       <c r="C73">
-        <v>53.57064232089613</v>
+        <v>33.26154332120575</v>
       </c>
       <c r="D73">
-        <v>0.3000000000000001</v>
+        <v>14.25494713765961</v>
       </c>
       <c r="E73">
-        <v>0.05899850475869618</v>
+        <v>0.03663165564009443</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6694,13 +6694,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>78.56807063496755</v>
+        <v>48.78222794930287</v>
       </c>
       <c r="D74">
-        <v>0.3</v>
+        <v>20.9066691211298</v>
       </c>
       <c r="E74">
-        <v>0.06596815334590055</v>
+        <v>0.04095904949563633</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6711,13 +6711,13 @@
         <v>165</v>
       </c>
       <c r="C75">
-        <v>23.72904097965595</v>
+        <v>14.73315402469286</v>
       </c>
       <c r="D75">
-        <v>0.3</v>
+        <v>6.314208867725513</v>
       </c>
       <c r="E75">
-        <v>0.06536925889712382</v>
+        <v>0.04058720116995279</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6728,13 +6728,13 @@
         <v>166</v>
       </c>
       <c r="C76">
-        <v>3.726047757136057</v>
+        <v>2.313470466687309</v>
       </c>
       <c r="D76">
-        <v>0.3</v>
+        <v>0.9914873428659901</v>
       </c>
       <c r="E76">
-        <v>0.06536925889712381</v>
+        <v>0.04058720116995279</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -6745,13 +6745,13 @@
         <v>167</v>
       </c>
       <c r="C77">
-        <v>236.2103005408986</v>
+        <v>146.660909856059</v>
       </c>
       <c r="D77">
-        <v>0.3</v>
+        <v>62.85467565259674</v>
       </c>
       <c r="E77">
-        <v>0.09455976803078406</v>
+        <v>0.05871133300883066</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6762,13 +6762,13 @@
         <v>168</v>
       </c>
       <c r="C78">
-        <v>47.26385555174958</v>
+        <v>29.3457145715148</v>
       </c>
       <c r="D78">
-        <v>0.3</v>
+        <v>12.57673481636349</v>
       </c>
       <c r="E78">
-        <v>0.06439217377622558</v>
+        <v>0.03998053756337167</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6779,13 +6779,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>792.1290929335046</v>
+        <v>491.8260263293112</v>
       </c>
       <c r="D79">
-        <v>0.3</v>
+        <v>210.782582712562</v>
       </c>
       <c r="E79">
-        <v>0.05922460507914053</v>
+        <v>0.0367720393517242</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6796,13 +6796,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>80.50909707054494</v>
+        <v>49.98739428813132</v>
       </c>
       <c r="D80">
-        <v>0.3000000000000001</v>
+        <v>21.42316898062771</v>
       </c>
       <c r="E80">
-        <v>0.06875243131558065</v>
+        <v>0.04268778333743067</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6813,13 +6813,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>75.45474883756356</v>
+        <v>46.84919367248938</v>
       </c>
       <c r="D81">
-        <v>0.3000000000000001</v>
+        <v>20.07822585963832</v>
       </c>
       <c r="E81">
-        <v>0.05890300455703634</v>
+        <v>0.03657236040006977</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6830,13 +6830,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>428.0835630738745</v>
+        <v>265.7933405574221</v>
       </c>
       <c r="D82">
-        <v>0.3</v>
+        <v>113.9114316674666</v>
       </c>
       <c r="E82">
-        <v>0.06297198633037283</v>
+        <v>0.03909875559832628</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6847,13 +6847,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>174.291592217852</v>
+        <v>108.216125361161</v>
       </c>
       <c r="D83">
-        <v>0.3</v>
+        <v>46.37833944049756</v>
       </c>
       <c r="E83">
-        <v>0.0671126654670204</v>
+        <v>0.04166966706244165</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6864,13 +6864,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>155.0102027654304</v>
+        <v>96.24447927330735</v>
       </c>
       <c r="D84">
-        <v>0.3</v>
+        <v>41.24763397427458</v>
       </c>
       <c r="E84">
-        <v>0.08179957929574162</v>
+        <v>0.05078864341599332</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6881,13 +6881,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>50.47281390518645</v>
+        <v>31.33812874959069</v>
       </c>
       <c r="D85">
-        <v>0.3</v>
+        <v>13.43062660696744</v>
       </c>
       <c r="E85">
-        <v>0.06615047693995603</v>
+        <v>0.04107225262069553</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6898,13 +6898,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>119.2026560787126</v>
+        <v>74.01188668627043</v>
       </c>
       <c r="D86">
-        <v>0.3</v>
+        <v>31.71938000840163</v>
       </c>
       <c r="E86">
-        <v>0.08010931188085524</v>
+        <v>0.04973917116012798</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6915,13 +6915,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>281.4677299644492</v>
+        <v>174.7608519915421</v>
       </c>
       <c r="D87">
-        <v>0.3</v>
+        <v>74.8975079963752</v>
       </c>
       <c r="E87">
-        <v>0.05770146165732867</v>
+        <v>0.03582633292159534</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6932,13 +6932,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>94.3524263595417</v>
+        <v>58.58259637843882</v>
       </c>
       <c r="D88">
-        <v>0.3000000000000001</v>
+        <v>25.10682701933093</v>
       </c>
       <c r="E88">
-        <v>0.05937849361833965</v>
+        <v>0.03686758739989856</v>
       </c>
     </row>
   </sheetData>
@@ -6979,13 +6979,13 @@
         <v>92</v>
       </c>
       <c r="C2">
-        <v>266.0719393051889</v>
+        <v>165.2017402133087</v>
       </c>
       <c r="D2">
-        <v>0.4</v>
+        <v>110.1344934755392</v>
       </c>
       <c r="E2">
-        <v>0.08577431956969339</v>
+        <v>0.05325652489145994</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6996,13 +6996,13 @@
         <v>93</v>
       </c>
       <c r="C3">
-        <v>418.296230105987</v>
+        <v>259.7164711116459</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>173.1443140744306</v>
       </c>
       <c r="E3">
-        <v>0.1057371663564173</v>
+        <v>0.0656512818785758</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7013,13 +7013,13 @@
         <v>94</v>
       </c>
       <c r="C4">
-        <v>448.5966984129273</v>
+        <v>278.5297668941941</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>185.6865112627961</v>
       </c>
       <c r="E4">
-        <v>0.0669247647938128</v>
+        <v>0.04155300117771059</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7030,13 +7030,13 @@
         <v>95</v>
       </c>
       <c r="C5">
-        <v>324.1511347386005</v>
+        <v>201.2626047330471</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>134.1750698220314</v>
       </c>
       <c r="E5">
-        <v>0.06825671399001905</v>
+        <v>0.04237999678522785</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7047,13 +7047,13 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>289.9316510463341</v>
+        <v>180.0160265710443</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>120.0106843806962</v>
       </c>
       <c r="E6">
-        <v>0.07678274656947406</v>
+        <v>0.04767373585038248</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7064,13 +7064,13 @@
         <v>97</v>
       </c>
       <c r="C7">
-        <v>609.2764970231279</v>
+        <v>378.2944486447265</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>252.1962990964843</v>
       </c>
       <c r="E7">
-        <v>0.1069469013556482</v>
+        <v>0.06640239576000115</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7081,13 +7081,13 @@
         <v>98</v>
       </c>
       <c r="C8">
-        <v>1677.05033622161</v>
+        <v>1041.265887310807</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>694.1772582072044</v>
       </c>
       <c r="E8">
-        <v>0.07065727138072932</v>
+        <v>0.04387048187532364</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7098,13 +7098,13 @@
         <v>99</v>
       </c>
       <c r="C9">
-        <v>1148.534943588106</v>
+        <v>713.1153020947265</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>475.4102013964844</v>
       </c>
       <c r="E9">
-        <v>0.1635856635220205</v>
+        <v>0.1015689078613768</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7115,13 +7115,13 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>1127.611857742705</v>
+        <v>700.1243410737376</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>466.7495607158252</v>
       </c>
       <c r="E10">
-        <v>0.09463006526877352</v>
+        <v>0.05875497994912199</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7132,13 +7132,13 @@
         <v>101</v>
       </c>
       <c r="C11">
-        <v>470.5602685213822</v>
+        <v>292.166755494679</v>
       </c>
       <c r="D11">
-        <v>0.4000000000000001</v>
+        <v>194.7778369964527</v>
       </c>
       <c r="E11">
-        <v>0.07128620944120319</v>
+        <v>0.04426098401676701</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7149,13 +7149,13 @@
         <v>102</v>
       </c>
       <c r="C12">
-        <v>329.4096290329339</v>
+        <v>204.5275578528467</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>136.3517052352312</v>
       </c>
       <c r="E12">
-        <v>0.07247736612385784</v>
+        <v>0.04500056278390467</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7166,13 +7166,13 @@
         <v>103</v>
       </c>
       <c r="C13">
-        <v>1062.274714961523</v>
+        <v>659.5570805193053</v>
       </c>
       <c r="D13">
-        <v>0.4</v>
+        <v>439.7047203462035</v>
       </c>
       <c r="E13">
-        <v>0.07129839015783096</v>
+        <v>0.04426854691719614</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7183,13 +7183,13 @@
         <v>104</v>
       </c>
       <c r="C14">
-        <v>1702.310555162044</v>
+        <v>1056.949736340607</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>704.6331575604049</v>
       </c>
       <c r="E14">
-        <v>0.07568852230501286</v>
+        <v>0.04699434157398993</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7200,13 +7200,13 @@
         <v>105</v>
       </c>
       <c r="C15">
-        <v>776.6955139948253</v>
+        <v>482.2434521388597</v>
       </c>
       <c r="D15">
-        <v>0.4</v>
+        <v>321.4956347592398</v>
       </c>
       <c r="E15">
-        <v>0.067509388439359</v>
+        <v>0.04191598888647194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7217,13 +7217,13 @@
         <v>106</v>
       </c>
       <c r="C16">
-        <v>312.2771600419097</v>
+        <v>193.8901576863402</v>
       </c>
       <c r="D16">
-        <v>0.4</v>
+        <v>129.2601051242268</v>
       </c>
       <c r="E16">
-        <v>0.05893133799620866</v>
+        <v>0.03658995238466507</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7234,13 +7234,13 @@
         <v>107</v>
       </c>
       <c r="C17">
-        <v>243.6230547363496</v>
+        <v>151.2634241086325</v>
       </c>
       <c r="D17">
-        <v>0.4</v>
+        <v>100.8422827390884</v>
       </c>
       <c r="E17">
-        <v>0.0484725536681953</v>
+        <v>0.03009618466148678</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7251,13 +7251,13 @@
         <v>108</v>
       </c>
       <c r="C18">
-        <v>1295.717033601654</v>
+        <v>804.4993746202424</v>
       </c>
       <c r="D18">
-        <v>0.4</v>
+        <v>536.332916413495</v>
       </c>
       <c r="E18">
-        <v>0.07475003078352685</v>
+        <v>0.04641164039576799</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7268,13 +7268,13 @@
         <v>109</v>
       </c>
       <c r="C19">
-        <v>589.2833860610964</v>
+        <v>365.880900895834</v>
       </c>
       <c r="D19">
-        <v>0.4</v>
+        <v>243.9206005972227</v>
       </c>
       <c r="E19">
-        <v>0.05447752482768756</v>
+        <v>0.03382461873863677</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7285,13 +7285,13 @@
         <v>110</v>
       </c>
       <c r="C20">
-        <v>601.8608225446147</v>
+        <v>373.6901212139387</v>
       </c>
       <c r="D20">
-        <v>0.4</v>
+        <v>249.1267474759591</v>
       </c>
       <c r="E20">
-        <v>0.05931416404302895</v>
+        <v>0.03682764572917499</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7302,13 +7302,13 @@
         <v>111</v>
       </c>
       <c r="C21">
-        <v>495.2050898602243</v>
+        <v>307.4685095355397</v>
       </c>
       <c r="D21">
-        <v>0.4</v>
+        <v>204.9790063570264</v>
       </c>
       <c r="E21">
-        <v>0.06322036127412541</v>
+        <v>0.03925296942876799</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7319,13 +7319,13 @@
         <v>112</v>
       </c>
       <c r="C22">
-        <v>442.485868353817</v>
+        <v>274.735605952048</v>
       </c>
       <c r="D22">
-        <v>0.4</v>
+        <v>183.1570706346987</v>
       </c>
       <c r="E22">
-        <v>0.05198987996167512</v>
+        <v>0.03228006179673928</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7336,13 +7336,13 @@
         <v>113</v>
       </c>
       <c r="C23">
-        <v>598.5178475972943</v>
+        <v>371.614497304747</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>247.7429982031647</v>
       </c>
       <c r="E23">
-        <v>0.06167108166896387</v>
+        <v>0.03829103527096827</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7353,13 +7353,13 @@
         <v>114</v>
       </c>
       <c r="C24">
-        <v>713.3619374902844</v>
+        <v>442.9201883636375</v>
       </c>
       <c r="D24">
-        <v>0.4</v>
+        <v>295.2801255757583</v>
       </c>
       <c r="E24">
-        <v>0.105824349130735</v>
+        <v>0.06570541290070278</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7370,13 +7370,13 @@
         <v>115</v>
       </c>
       <c r="C25">
-        <v>1168.752327883539</v>
+        <v>725.6680991949714</v>
       </c>
       <c r="D25">
-        <v>0.4</v>
+        <v>483.7787327966477</v>
       </c>
       <c r="E25">
-        <v>0.0800515293070917</v>
+        <v>0.04970329446540901</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7387,13 +7387,13 @@
         <v>116</v>
       </c>
       <c r="C26">
-        <v>687.0727767057527</v>
+        <v>426.597478341328</v>
       </c>
       <c r="D26">
-        <v>0.4</v>
+        <v>284.3983188942187</v>
       </c>
       <c r="E26">
-        <v>0.1080472993718749</v>
+        <v>0.06708562326487309</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7404,13 +7404,13 @@
         <v>117</v>
       </c>
       <c r="C27">
-        <v>229.6569292820842</v>
+        <v>142.5919789532093</v>
       </c>
       <c r="D27">
-        <v>0.4</v>
+        <v>95.06131930213957</v>
       </c>
       <c r="E27">
-        <v>0.08369421621067208</v>
+        <v>0.05196500690714626</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7421,13 +7421,13 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>1424.315919591285</v>
+        <v>884.345298284563</v>
       </c>
       <c r="D28">
-        <v>0.4</v>
+        <v>589.5635321897088</v>
       </c>
       <c r="E28">
-        <v>0.0548679039867208</v>
+        <v>0.03406700174446485</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7438,13 +7438,13 @@
         <v>119</v>
       </c>
       <c r="C29">
-        <v>257.8791084039157</v>
+        <v>160.1148831561606</v>
       </c>
       <c r="D29">
-        <v>0.4</v>
+        <v>106.7432554374404</v>
       </c>
       <c r="E29">
-        <v>0.0532148387131481</v>
+        <v>0.03304062797279417</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7455,13 +7455,13 @@
         <v>120</v>
       </c>
       <c r="C30">
-        <v>442.2157788050941</v>
+        <v>274.5679097132828</v>
       </c>
       <c r="D30">
-        <v>0.4</v>
+        <v>183.0452731421886</v>
       </c>
       <c r="E30">
-        <v>0.04743277687494306</v>
+        <v>0.0294505963438038</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7472,13 +7472,13 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>155.1246315425057</v>
+        <v>96.31552710026978</v>
       </c>
       <c r="D31">
-        <v>0.4</v>
+        <v>64.21035140017986</v>
       </c>
       <c r="E31">
-        <v>0.04364789857695714</v>
+        <v>0.02710059850879847</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7489,13 +7489,13 @@
         <v>122</v>
       </c>
       <c r="C32">
-        <v>287.276186568668</v>
+        <v>178.3672718999181</v>
       </c>
       <c r="D32">
-        <v>0.4</v>
+        <v>118.9115145999454</v>
       </c>
       <c r="E32">
-        <v>0.05740930986584093</v>
+        <v>0.03564493842924022</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7506,13 +7506,13 @@
         <v>123</v>
       </c>
       <c r="C33">
-        <v>1467.424236650325</v>
+        <v>911.1108753477342</v>
       </c>
       <c r="D33">
-        <v>0.4</v>
+        <v>607.4072502318229</v>
       </c>
       <c r="E33">
-        <v>0.06038782866873765</v>
+        <v>0.03749427470566807</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7523,13 +7523,13 @@
         <v>124</v>
       </c>
       <c r="C34">
-        <v>559.0522372437766</v>
+        <v>347.1106449781656</v>
       </c>
       <c r="D34">
-        <v>0.4000000000000001</v>
+        <v>231.4070966521105</v>
       </c>
       <c r="E34">
-        <v>0.05481979184583022</v>
+        <v>0.03403712933694505</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7540,13 +7540,13 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <v>601.2626425486119</v>
+        <v>373.3187164857343</v>
       </c>
       <c r="D35">
-        <v>0.4000000000000001</v>
+        <v>248.8791443238229</v>
       </c>
       <c r="E35">
-        <v>0.05939569717955269</v>
+        <v>0.036878268940604</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7557,13 +7557,13 @@
         <v>126</v>
       </c>
       <c r="C36">
-        <v>575.1036486057625</v>
+        <v>357.0768259170664</v>
       </c>
       <c r="D36">
-        <v>0.4000000000000001</v>
+        <v>238.0512172780442</v>
       </c>
       <c r="E36">
-        <v>0.06020136591706925</v>
+        <v>0.03737850161384554</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7574,13 +7574,13 @@
         <v>127</v>
       </c>
       <c r="C37">
-        <v>200.5068507837946</v>
+        <v>124.4929501422517</v>
       </c>
       <c r="D37">
-        <v>0.4</v>
+        <v>82.99530009483449</v>
       </c>
       <c r="E37">
-        <v>0.05532749745689697</v>
+        <v>0.03435235931077586</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7591,13 +7591,13 @@
         <v>128</v>
       </c>
       <c r="C38">
-        <v>853.2879738952703</v>
+        <v>529.7990406605721</v>
       </c>
       <c r="D38">
-        <v>0.4</v>
+        <v>353.1993604403814</v>
       </c>
       <c r="E38">
-        <v>0.05577045581014838</v>
+        <v>0.03462738827846876</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7608,13 +7608,13 @@
         <v>129</v>
       </c>
       <c r="C39">
-        <v>904.7791665716362</v>
+        <v>561.7694718830745</v>
       </c>
       <c r="D39">
-        <v>0.4</v>
+        <v>374.5129812553831</v>
       </c>
       <c r="E39">
-        <v>0.05366742787660218</v>
+        <v>0.03332163662631678</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7625,13 +7625,13 @@
         <v>130</v>
       </c>
       <c r="C40">
-        <v>333.6567229832751</v>
+        <v>207.1645413441461</v>
       </c>
       <c r="D40">
-        <v>0.4000000000000001</v>
+        <v>138.1096942294307</v>
       </c>
       <c r="E40">
-        <v>0.05573020260285202</v>
+        <v>0.03460239541408821</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -7642,13 +7642,13 @@
         <v>131</v>
       </c>
       <c r="C41">
-        <v>514.1131729866223</v>
+        <v>319.2083729902723</v>
       </c>
       <c r="D41">
-        <v>0.4</v>
+        <v>212.8055819935149</v>
       </c>
       <c r="E41">
-        <v>0.05159706673892235</v>
+        <v>0.03203616750203456</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -7659,13 +7659,13 @@
         <v>132</v>
       </c>
       <c r="C42">
-        <v>198.2453313314195</v>
+        <v>123.088792492128</v>
       </c>
       <c r="D42">
-        <v>0.4000000000000001</v>
+        <v>82.05919499475203</v>
       </c>
       <c r="E42">
-        <v>0.05174767197374562</v>
+        <v>0.03212967697523571</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7676,13 +7676,13 @@
         <v>133</v>
       </c>
       <c r="C43">
-        <v>1074.0475928473</v>
+        <v>666.8667574402463</v>
       </c>
       <c r="D43">
-        <v>0.4000000000000001</v>
+        <v>444.5778382934976</v>
       </c>
       <c r="E43">
-        <v>0.0559283270593262</v>
+        <v>0.03472540915643857</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7693,13 +7693,13 @@
         <v>134</v>
       </c>
       <c r="C44">
-        <v>637.7617782970427</v>
+        <v>395.9807106729768</v>
       </c>
       <c r="D44">
-        <v>0.4</v>
+        <v>263.9871404486512</v>
       </c>
       <c r="E44">
-        <v>0.05302309430470924</v>
+        <v>0.03292157554647297</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -7710,13 +7710,13 @@
         <v>135</v>
       </c>
       <c r="C45">
-        <v>1257.66744733526</v>
+        <v>780.8747192656815</v>
       </c>
       <c r="D45">
-        <v>0.4</v>
+        <v>520.5831461771211</v>
       </c>
       <c r="E45">
-        <v>0.05643054010567865</v>
+        <v>0.03503722884487286</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7727,13 +7727,13 @@
         <v>136</v>
       </c>
       <c r="C46">
-        <v>146.5531343398187</v>
+        <v>90.99355944815601</v>
       </c>
       <c r="D46">
-        <v>0.4</v>
+        <v>60.66237296543734</v>
       </c>
       <c r="E46">
-        <v>0.04820826787494036</v>
+        <v>0.02993209192373553</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -7744,13 +7744,13 @@
         <v>137</v>
       </c>
       <c r="C47">
-        <v>340.0362807210994</v>
+        <v>211.1255529518789</v>
       </c>
       <c r="D47">
-        <v>0.4</v>
+        <v>140.750368634586</v>
       </c>
       <c r="E47">
-        <v>0.04509764996301053</v>
+        <v>0.02800073646576644</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7761,13 +7761,13 @@
         <v>138</v>
       </c>
       <c r="C48">
-        <v>152.3136480418822</v>
+        <v>94.57021202786285</v>
       </c>
       <c r="D48">
-        <v>0.4000000000000001</v>
+        <v>63.04680801857523</v>
       </c>
       <c r="E48">
-        <v>0.05500673457633881</v>
+        <v>0.03415320044343187</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -7778,13 +7778,13 @@
         <v>139</v>
       </c>
       <c r="C49">
-        <v>584.7728985491781</v>
+        <v>363.0803786456293</v>
       </c>
       <c r="D49">
-        <v>0.4</v>
+        <v>242.0535857637528</v>
       </c>
       <c r="E49">
-        <v>0.07607296715873267</v>
+        <v>0.04723304002154667</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7795,13 +7795,13 @@
         <v>140</v>
       </c>
       <c r="C50">
-        <v>516.050465555133</v>
+        <v>320.4112210036932</v>
       </c>
       <c r="D50">
-        <v>0.4</v>
+        <v>213.6074806691288</v>
       </c>
       <c r="E50">
-        <v>0.05434970674619621</v>
+        <v>0.033745257609657</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -7812,13 +7812,13 @@
         <v>141</v>
       </c>
       <c r="C51">
-        <v>1036.095108762209</v>
+        <v>643.3023919808608</v>
       </c>
       <c r="D51">
-        <v>0.4000000000000001</v>
+        <v>428.8682613205739</v>
       </c>
       <c r="E51">
-        <v>0.05396047647321542</v>
+        <v>0.03350358793713144</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7829,13 +7829,13 @@
         <v>142</v>
       </c>
       <c r="C52">
-        <v>686.4472571061912</v>
+        <v>426.2090986923694</v>
       </c>
       <c r="D52">
-        <v>0.4000000000000001</v>
+        <v>284.1393991282463</v>
       </c>
       <c r="E52">
-        <v>0.05352832634951584</v>
+        <v>0.03323526970464515</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -7846,13 +7846,13 @@
         <v>143</v>
       </c>
       <c r="C53">
-        <v>471.9312183584553</v>
+        <v>293.0179662590349</v>
       </c>
       <c r="D53">
-        <v>0.4000000000000001</v>
+        <v>195.3453108393566</v>
       </c>
       <c r="E53">
-        <v>0.05990495282539418</v>
+        <v>0.03719446131747079</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7863,13 +7863,13 @@
         <v>144</v>
       </c>
       <c r="C54">
-        <v>282.6145493685576</v>
+        <v>175.4729021301769</v>
       </c>
       <c r="D54">
-        <v>0.4</v>
+        <v>116.9819347534513</v>
       </c>
       <c r="E54">
-        <v>0.0464215751262414</v>
+        <v>0.02882275002138254</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7880,13 +7880,13 @@
         <v>145</v>
       </c>
       <c r="C55">
-        <v>1341.778064030605</v>
+        <v>833.0982655921787</v>
       </c>
       <c r="D55">
-        <v>0.4</v>
+        <v>555.3988437281191</v>
       </c>
       <c r="E55">
-        <v>0.05464823296666821</v>
+        <v>0.03393060992922163</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -7897,13 +7897,13 @@
         <v>146</v>
       </c>
       <c r="C56">
-        <v>509.6773249707348</v>
+        <v>316.4541937504021</v>
       </c>
       <c r="D56">
-        <v>0.4</v>
+        <v>210.9694625002681</v>
       </c>
       <c r="E56">
-        <v>0.05850290690665001</v>
+        <v>0.03632394326795249</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -7914,13 +7914,13 @@
         <v>147</v>
       </c>
       <c r="C57">
-        <v>776.5099439727228</v>
+        <v>482.1282333350175</v>
       </c>
       <c r="D57">
-        <v>0.4</v>
+        <v>321.418822223345</v>
       </c>
       <c r="E57">
-        <v>0.05306566964892522</v>
+        <v>0.03294801020535894</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -7931,13 +7931,13 @@
         <v>148</v>
       </c>
       <c r="C58">
-        <v>259.6726717591302</v>
+        <v>161.228490958013</v>
       </c>
       <c r="D58">
-        <v>0.4</v>
+        <v>107.4856606386753</v>
       </c>
       <c r="E58">
-        <v>0.05731023433218499</v>
+        <v>0.03558342329684683</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -7948,13 +7948,13 @@
         <v>149</v>
       </c>
       <c r="C59">
-        <v>1179.168877545784</v>
+        <v>732.1356437835326</v>
       </c>
       <c r="D59">
-        <v>0.4</v>
+        <v>488.0904291890218</v>
       </c>
       <c r="E59">
-        <v>0.08985513049956442</v>
+        <v>0.05579026470955822</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -7965,13 +7965,13 @@
         <v>150</v>
       </c>
       <c r="C60">
-        <v>495.8679734576352</v>
+        <v>307.8800881640004</v>
       </c>
       <c r="D60">
-        <v>0.4</v>
+        <v>205.2533921093336</v>
       </c>
       <c r="E60">
-        <v>0.05851639998319982</v>
+        <v>0.03633232100118013</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7982,13 +7982,13 @@
         <v>151</v>
       </c>
       <c r="C61">
-        <v>789.3750150248021</v>
+        <v>490.1160434412668</v>
       </c>
       <c r="D61">
-        <v>0.4</v>
+        <v>326.7440289608446</v>
       </c>
       <c r="E61">
-        <v>0.06756034021095533</v>
+        <v>0.0419476243958633</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -7999,13 +7999,13 @@
         <v>152</v>
       </c>
       <c r="C62">
-        <v>406.2644146827302</v>
+        <v>252.2460221381919</v>
       </c>
       <c r="D62">
-        <v>0.4</v>
+        <v>168.1640147587947</v>
       </c>
       <c r="E62">
-        <v>0.05792192966677077</v>
+        <v>0.03596321958058055</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -8016,13 +8016,13 @@
         <v>153</v>
       </c>
       <c r="C63">
-        <v>420.0563766925083</v>
+        <v>260.8093307340591</v>
       </c>
       <c r="D63">
-        <v>0.4</v>
+        <v>173.8728871560394</v>
       </c>
       <c r="E63">
-        <v>0.07784588152196224</v>
+        <v>0.04833382704485898</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -8033,13 +8033,13 @@
         <v>154</v>
       </c>
       <c r="C64">
-        <v>263.6504388996134</v>
+        <v>163.6982517884379</v>
       </c>
       <c r="D64">
-        <v>0.4</v>
+        <v>109.1321678589586</v>
       </c>
       <c r="E64">
-        <v>0.07974907407731803</v>
+        <v>0.04951550265832967</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -8050,13 +8050,13 @@
         <v>155</v>
       </c>
       <c r="C65">
-        <v>1461.107055487124</v>
+        <v>907.1885928096781</v>
       </c>
       <c r="D65">
-        <v>0.4</v>
+        <v>604.7923952064521</v>
       </c>
       <c r="E65">
-        <v>0.06414272160705581</v>
+        <v>0.03982565489308917</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -8067,13 +8067,13 @@
         <v>156</v>
       </c>
       <c r="C66">
-        <v>346.5892281254825</v>
+        <v>215.194220687219</v>
       </c>
       <c r="D66">
-        <v>0.4</v>
+        <v>143.4628137914793</v>
       </c>
       <c r="E66">
-        <v>0.06557979718552175</v>
+        <v>0.04071792255198089</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -8084,13 +8084,13 @@
         <v>157</v>
       </c>
       <c r="C67">
-        <v>760.1584432783944</v>
+        <v>471.9757295540616</v>
       </c>
       <c r="D67">
-        <v>0.4</v>
+        <v>314.6504863693744</v>
       </c>
       <c r="E67">
-        <v>0.0458755849896436</v>
+        <v>0.02848374952046237</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -8101,13 +8101,13 @@
         <v>158</v>
       </c>
       <c r="C68">
-        <v>1290.127971197486</v>
+        <v>801.029174651991</v>
       </c>
       <c r="D68">
-        <v>0.4000000000000001</v>
+        <v>534.0194497679939</v>
       </c>
       <c r="E68">
-        <v>0.04955740679896614</v>
+        <v>0.03076976048292517</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -8118,13 +8118,13 @@
         <v>159</v>
       </c>
       <c r="C69">
-        <v>805.5419528706618</v>
+        <v>500.1539537636813</v>
       </c>
       <c r="D69">
-        <v>0.4</v>
+        <v>333.4359691757875</v>
       </c>
       <c r="E69">
-        <v>0.07347824070698365</v>
+        <v>0.04562199705953492</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -8135,13 +8135,13 @@
         <v>160</v>
       </c>
       <c r="C70">
-        <v>2269.289149535181</v>
+        <v>1408.981787141355</v>
       </c>
       <c r="D70">
-        <v>0.4</v>
+        <v>939.3211914275705</v>
       </c>
       <c r="E70">
-        <v>0.0542010401627778</v>
+        <v>0.03365295182815887</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -8152,13 +8152,13 @@
         <v>161</v>
       </c>
       <c r="C71">
-        <v>268.9540490815661</v>
+        <v>166.9912169683046</v>
       </c>
       <c r="D71">
-        <v>0.4000000000000001</v>
+        <v>111.3274779788698</v>
       </c>
       <c r="E71">
-        <v>0.04570938971474611</v>
+        <v>0.02838056032772002</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -8169,13 +8169,13 @@
         <v>162</v>
       </c>
       <c r="C72">
-        <v>55.6385777870091</v>
+        <v>34.54550636722553</v>
       </c>
       <c r="D72">
-        <v>0.4</v>
+        <v>23.03033757815036</v>
       </c>
       <c r="E72">
-        <v>0.05603079334039184</v>
+        <v>0.03478902957424525</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -8186,13 +8186,13 @@
         <v>163</v>
       </c>
       <c r="C73">
-        <v>45.91769341791097</v>
+        <v>28.50989427531921</v>
       </c>
       <c r="D73">
-        <v>0.4</v>
+        <v>19.00659618354614</v>
       </c>
       <c r="E73">
-        <v>0.0505701469360253</v>
+        <v>0.0313985619772238</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -8203,13 +8203,13 @@
         <v>164</v>
       </c>
       <c r="C74">
-        <v>67.3440605442579</v>
+        <v>41.8133382422596</v>
       </c>
       <c r="D74">
-        <v>0.4</v>
+        <v>27.87555882817307</v>
       </c>
       <c r="E74">
-        <v>0.05654413143934332</v>
+        <v>0.03510775671054542</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -8220,13 +8220,13 @@
         <v>165</v>
       </c>
       <c r="C75">
-        <v>20.33917798256224</v>
+        <v>12.62841773545103</v>
       </c>
       <c r="D75">
-        <v>0.4000000000000001</v>
+        <v>8.418945156967352</v>
       </c>
       <c r="E75">
-        <v>0.05603079334039184</v>
+        <v>0.03478902957424525</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -8237,13 +8237,13 @@
         <v>166</v>
       </c>
       <c r="C76">
-        <v>3.193755220402335</v>
+        <v>1.982974685731979</v>
       </c>
       <c r="D76">
-        <v>0.4</v>
+        <v>1.32198312382132</v>
       </c>
       <c r="E76">
-        <v>0.05603079334039184</v>
+        <v>0.03478902957424525</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -8254,13 +8254,13 @@
         <v>167</v>
       </c>
       <c r="C77">
-        <v>202.4659718921988</v>
+        <v>125.7093513051934</v>
       </c>
       <c r="D77">
-        <v>0.4</v>
+        <v>83.8062342034623</v>
       </c>
       <c r="E77">
-        <v>0.08105122974067205</v>
+        <v>0.05032399972185486</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -8271,13 +8271,13 @@
         <v>168</v>
       </c>
       <c r="C78">
-        <v>40.51187618721392</v>
+        <v>25.15346963272698</v>
       </c>
       <c r="D78">
-        <v>0.4000000000000001</v>
+        <v>16.76897975515132</v>
       </c>
       <c r="E78">
-        <v>0.05519329180819335</v>
+        <v>0.03426903219717572</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -8288,13 +8288,13 @@
         <v>169</v>
       </c>
       <c r="C79">
-        <v>678.9677939430039</v>
+        <v>421.5651654251239</v>
       </c>
       <c r="D79">
-        <v>0.4</v>
+        <v>281.0434436167492</v>
       </c>
       <c r="E79">
-        <v>0.05076394721069188</v>
+        <v>0.03151889087290646</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -8305,13 +8305,13 @@
         <v>170</v>
       </c>
       <c r="C80">
-        <v>69.00779748903852</v>
+        <v>42.84633796125542</v>
       </c>
       <c r="D80">
-        <v>0.4</v>
+        <v>28.56422530750361</v>
       </c>
       <c r="E80">
-        <v>0.05893065541335484</v>
+        <v>0.03658952857494058</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -8322,13 +8322,13 @@
         <v>171</v>
       </c>
       <c r="C81">
-        <v>64.67549900362592</v>
+        <v>40.15645171927662</v>
       </c>
       <c r="D81">
-        <v>0.4</v>
+        <v>26.77096781285108</v>
       </c>
       <c r="E81">
-        <v>0.05048828962031687</v>
+        <v>0.0313477374857741</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -8339,13 +8339,13 @@
         <v>172</v>
       </c>
       <c r="C82">
-        <v>366.9287683490354</v>
+        <v>227.8228633349332</v>
       </c>
       <c r="D82">
-        <v>0.4</v>
+        <v>151.8819088899555</v>
       </c>
       <c r="E82">
-        <v>0.05397598828317672</v>
+        <v>0.03351321908427967</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -8356,13 +8356,13 @@
         <v>173</v>
       </c>
       <c r="C83">
-        <v>149.3927933295874</v>
+        <v>92.75667888099511</v>
       </c>
       <c r="D83">
-        <v>0.4</v>
+        <v>61.83778592066341</v>
       </c>
       <c r="E83">
-        <v>0.05752514182887463</v>
+        <v>0.03571685748209284</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -8373,13 +8373,13 @@
         <v>174</v>
       </c>
       <c r="C84">
-        <v>132.8658880846546</v>
+        <v>82.49526794854916</v>
       </c>
       <c r="D84">
-        <v>0.4000000000000001</v>
+        <v>54.99684529903277</v>
       </c>
       <c r="E84">
-        <v>0.07011392511063566</v>
+        <v>0.04353312292799428</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -8390,13 +8390,13 @@
         <v>175</v>
       </c>
       <c r="C85">
-        <v>43.26241191873124</v>
+        <v>26.86125321393488</v>
       </c>
       <c r="D85">
-        <v>0.4000000000000001</v>
+        <v>17.90750214262325</v>
       </c>
       <c r="E85">
-        <v>0.05670040880567659</v>
+        <v>0.03520478796059617</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -8407,13 +8407,13 @@
         <v>176</v>
       </c>
       <c r="C86">
-        <v>102.1737052103251</v>
+        <v>63.43876001680323</v>
       </c>
       <c r="D86">
-        <v>0.4</v>
+        <v>42.29250667786883</v>
       </c>
       <c r="E86">
-        <v>0.06866512446930449</v>
+        <v>0.0426335752801097</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -8424,13 +8424,13 @@
         <v>177</v>
       </c>
       <c r="C87">
-        <v>241.2580542552422</v>
+        <v>149.7950159927504</v>
       </c>
       <c r="D87">
-        <v>0.4</v>
+        <v>99.8633439951669</v>
       </c>
       <c r="E87">
-        <v>0.04945839570628172</v>
+        <v>0.03070828536136744</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -8441,13 +8441,13 @@
         <v>178</v>
       </c>
       <c r="C88">
-        <v>80.8735083081786</v>
+        <v>50.21365403866184</v>
       </c>
       <c r="D88">
-        <v>0.4</v>
+        <v>33.4757693591079</v>
       </c>
       <c r="E88">
-        <v>0.05089585167286256</v>
+        <v>0.03160078919991306</v>
       </c>
     </row>
   </sheetData>
